--- a/spreadsheet/macrofree/datasecurity_checklist.es.xlsx
+++ b/spreadsheet/macrofree/datasecurity_checklist.es.xlsx
@@ -1101,18 +1101,18 @@
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="21" t="inlineStr">
         <is>
-          <t>Gestión de identidades y accesos</t>
+          <t>Protección de datos</t>
         </is>
       </c>
       <c r="B9" s="21" t="inlineStr"/>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Uso de la identidad administrada para autenticarse en los servicios</t>
+          <t>Cifrar datos confidenciales en tránsito</t>
         </is>
       </c>
       <c r="D9" s="21" t="inlineStr">
         <is>
-          <t>Use el identificador de Microsoft Entra como método de autenticación predeterminado para controlar el acceso al plano de datos.</t>
+          <t>No se requieren configuraciones adicionales, ya que esto está habilitado en una implementación predeterminada.</t>
         </is>
       </c>
       <c r="E9" s="21" t="inlineStr">
@@ -1128,7 +1128,7 @@
       <c r="G9" s="21" t="n"/>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/synapse-analytics/synapse-service-identity?context=%2Fazure%2Fsynapse-analytics%2Fcontext%2Fcontext</t>
+          <t>https://learn.microsoft.com/azure/event-hubs/transport-layer-security-configure-minimum-version</t>
         </is>
       </c>
       <c r="I9" s="15" t="n"/>
@@ -1136,7 +1136,7 @@
       <c r="K9" s="22" t="n"/>
       <c r="L9" s="25" t="inlineStr">
         <is>
-          <t>cd289bed-6b17-4cb8-8454-61e1aee3453a</t>
+          <t>21d41d25-00c8-417b-b9ea-c41fd3390798</t>
         </is>
       </c>
       <c r="M9" s="25" t="n"/>
@@ -1153,17 +1153,17 @@
       <c r="B10" s="21" t="inlineStr"/>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Separe y limite los usuarios administrativos o con muchos privilegios y habilite las directivas condicionales y de MFA</t>
+          <t>Uso de la identidad administrada para autenticarse en los servicios</t>
         </is>
       </c>
       <c r="D10" s="21" t="inlineStr">
         <is>
-          <t>Si no es necesario para las operaciones administrativas rutinarias, deshabilite o restrinja las cuentas de administrador local solo para uso de emergencia.</t>
+          <t>Use el identificador de Microsoft Entra como método de autenticación predeterminado para controlar el acceso al plano de datos.</t>
         </is>
       </c>
       <c r="E10" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1172,13 +1172,17 @@
         </is>
       </c>
       <c r="G10" s="21" t="n"/>
-      <c r="H10" s="15" t="n"/>
+      <c r="H10" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/synapse-analytics/synapse-service-identity?context=%2Fazure%2Fsynapse-analytics%2Fcontext%2Fcontext</t>
+        </is>
+      </c>
       <c r="I10" s="15" t="n"/>
       <c r="J10" s="22" t="n"/>
       <c r="K10" s="23" t="n"/>
       <c r="L10" s="25" t="inlineStr">
         <is>
-          <t>ec823923-7a15-42d6-ac5e-402925388e5d</t>
+          <t>cd289bed-6b17-4cb8-8454-61e1aee3453a</t>
         </is>
       </c>
       <c r="M10" s="25" t="n"/>
@@ -1189,20 +1193,16 @@
     <row r="11" ht="16.5" customHeight="1">
       <c r="A11" s="21" t="inlineStr">
         <is>
-          <t>Gestión de identidades y accesos</t>
+          <t>Protección de datos</t>
         </is>
       </c>
       <c r="B11" s="21" t="inlineStr"/>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Use Azure RBAC para controlar el acceso en el almacenamiento y Synapse RBAC para controlar el acceso en el nivel de área de trabajo en función de los roles del equipo para precisar el acceso a los datos y el proceso</t>
-        </is>
-      </c>
-      <c r="D11" s="21" t="inlineStr">
-        <is>
-          <t>Azure Synapse también incluye roles de control de acceso basado en roles (RBAC) de Synapse para administrar diferentes aspectos de Synapse Studio. Aproveche estos roles integrados para asignar permisos a usuarios, grupos u otras entidades de seguridad para administrar quién puede publicar artefactos de código y enumerar o acceder a artefactos de código publicados,Ejecutar código en grupos de Apache Spark y entornos de ejecución de integración,Acceder a servicios vinculados (datos) protegidos por credenciales,Supervisar o cancelar ejecuciones de trabajos, revisar la salida de trabajos y los registros de ejecución.</t>
-        </is>
-      </c>
+          <t>Habilitar el cifrado de datos en reposo de forma predeterminada</t>
+        </is>
+      </c>
+      <c r="D11" s="21" t="n"/>
       <c r="E11" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -1214,17 +1214,13 @@
         </is>
       </c>
       <c r="G11" s="21" t="n"/>
-      <c r="H11" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/synapse-analytics/security/synapse-workspace-understand-what-role-you-need</t>
-        </is>
-      </c>
+      <c r="H11" s="15" t="n"/>
       <c r="I11" s="15" t="n"/>
       <c r="J11" s="22" t="n"/>
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
         <is>
-          <t>a9c27d9c-42bb-46cd-8c79-99a246f3389a</t>
+          <t>bc288bec-6a17-4ca7-8444-51e1add3452a</t>
         </is>
       </c>
       <c r="M11" s="25" t="n"/>
@@ -1241,13 +1237,17 @@
       <c r="B12" s="21" t="inlineStr"/>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Implemente RLS, CLS y enmascaramiento de datos en cargas de trabajo de SQL en un grupo de SQL dedicado para agregar una capa adicional de seguridad</t>
-        </is>
-      </c>
-      <c r="D12" s="21" t="n"/>
+          <t>Separe y limite los usuarios administrativos o con muchos privilegios y habilite las directivas condicionales y de MFA</t>
+        </is>
+      </c>
+      <c r="D12" s="21" t="inlineStr">
+        <is>
+          <t>Si no es necesario para las operaciones administrativas rutinarias, deshabilite o restrinja las cuentas de administrador local solo para uso de emergencia.</t>
+        </is>
+      </c>
       <c r="E12" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1256,17 +1256,13 @@
         </is>
       </c>
       <c r="G12" s="21" t="n"/>
-      <c r="H12" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/sql/relational-databases/security/row-level-security?view=sql-server-ver16&amp;context=%2Fazure%2Fsynapse-analytics%2Fcontext%2Fcontext</t>
-        </is>
-      </c>
+      <c r="H12" s="15" t="n"/>
       <c r="I12" s="15" t="n"/>
       <c r="J12" s="22" t="n"/>
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>7f42c78e-78cb-46a2-8ad1-a0916e6a8d8f</t>
+          <t>ec823923-7a15-42d6-ac5e-402925388e5d</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1277,18 +1273,18 @@
     <row r="13" ht="16.5" customHeight="1">
       <c r="A13" s="21" t="inlineStr">
         <is>
-          <t>Seguridad de la red</t>
+          <t>Protección de datos</t>
         </is>
       </c>
       <c r="B13" s="21" t="inlineStr"/>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Uso del área de trabajo de red virtual administrada para restringir el acceso a través de la red pública de Internet</t>
+          <t>Usar la opción de clave administrada por el cliente en el cifrado de datos en reposo cuando sea necesario</t>
         </is>
       </c>
       <c r="D13" s="21" t="inlineStr">
         <is>
-          <t>Al crear el área de trabajo de Azure Synapse, puede optar por asociarla a una red virtual de Microsoft Azure. Azure Synapse administra la red virtual asociada al área de trabajo. Esta red virtual se denomina red virtual de área de trabajo administrada. Esto se puede seleccionar al implementar un área de trabajo</t>
+          <t>Uso de almacenes de claves para almacenar la CMK</t>
         </is>
       </c>
       <c r="E13" s="21" t="inlineStr">
@@ -1304,7 +1300,7 @@
       <c r="G13" s="21" t="n"/>
       <c r="H13" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/synapse-analytics/security/synapse-workspace-managed-vnet?view=sql-server-ver16</t>
+          <t>https://learn.microsoft.com/azure/event-hubs/configure-customer-managed-key?tabs=Key-Vault</t>
         </is>
       </c>
       <c r="I13" s="15" t="n"/>
@@ -1312,7 +1308,7 @@
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>e2436b03-36db-455e-8796-0eee0bdf4cc2</t>
+          <t>ec723923-7a15-41c5-ab5e-401915387e5c</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1323,18 +1319,18 @@
     <row r="14" ht="16.5" customHeight="1">
       <c r="A14" s="21" t="inlineStr">
         <is>
-          <t>Seguridad de la red</t>
+          <t>Gestión de identidades y accesos</t>
         </is>
       </c>
       <c r="B14" s="21" t="inlineStr"/>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Configurar puntos de conexión privados para conectarse a los servicios externos y deshabilitar el acceso público</t>
+          <t>Use Azure RBAC para controlar el acceso en el almacenamiento y Synapse RBAC para controlar el acceso en el nivel de área de trabajo en función de los roles del equipo para precisar el acceso a los datos y el proceso</t>
         </is>
       </c>
       <c r="D14" s="21" t="inlineStr">
         <is>
-          <t>Para proteger los datos confidenciales, se recomienda deshabilitar por completo el acceso público a los puntos de conexión del área de trabajo. Al hacerlo, garantiza que solo se pueda acceder a todos los puntos de conexión del área de trabajo mediante puntos de conexión privados.</t>
+          <t>Azure Synapse también incluye roles de control de acceso basado en roles (RBAC) de Synapse para administrar diferentes aspectos de Synapse Studio. Aproveche estos roles integrados para asignar permisos a usuarios, grupos u otras entidades de seguridad para administrar quién puede publicar artefactos de código y enumerar o acceder a artefactos de código publicados,Ejecutar código en grupos de Apache Spark y entornos de ejecución de integración,Acceder a servicios vinculados (datos) protegidos por credenciales,Supervisar o cancelar ejecuciones de trabajos, revisar la salida de trabajos y los registros de ejecución.</t>
         </is>
       </c>
       <c r="E14" s="21" t="inlineStr">
@@ -1350,7 +1346,7 @@
       <c r="G14" s="21" t="n"/>
       <c r="H14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/synapse-analytics/security/synapse-workspace-managed-private-endpoints?view=sql-server-ver16</t>
+          <t>https://learn.microsoft.com/azure/synapse-analytics/security/synapse-workspace-understand-what-role-you-need</t>
         </is>
       </c>
       <c r="I14" s="15" t="n"/>
@@ -1358,7 +1354,7 @@
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>efc4d761-c31d-425f-bbb4-7a393a040ed3</t>
+          <t>a9c27d9c-42bb-46cd-8c79-99a246f3389a</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1369,21 +1365,21 @@
     <row r="15" ht="16.5" customHeight="1">
       <c r="A15" s="21" t="inlineStr">
         <is>
-          <t>Seguridad de la red</t>
+          <t>Gestión de identidades y accesos</t>
         </is>
       </c>
       <c r="B15" s="21" t="inlineStr"/>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Si se habilita el acceso público, se recomienda encarecidamente configurar las reglas de firewall de IP</t>
-        </is>
-      </c>
-      <c r="D15" s="21" t="inlineStr">
-        <is>
-          <t>Si es necesario habilitar el acceso público, se recomienda encarecidamente configurar las reglas de firewall de IP para permitir conexiones entrantes solo desde la lista especificada de direcciones IP públicas.</t>
-        </is>
-      </c>
-      <c r="E15" s="21" t="n"/>
+          <t>Implemente RLS, CLS y enmascaramiento de datos en cargas de trabajo de SQL en un grupo de SQL dedicado para agregar una capa adicional de seguridad</t>
+        </is>
+      </c>
+      <c r="D15" s="21" t="n"/>
+      <c r="E15" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -1392,7 +1388,7 @@
       <c r="G15" s="21" t="n"/>
       <c r="H15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/synapse-analytics/security/synapse-workspace-ip-firewall</t>
+          <t>https://learn.microsoft.com/sql/relational-databases/security/row-level-security?view=sql-server-ver16&amp;context=%2Fazure%2Fsynapse-analytics%2Fcontext%2Fcontext</t>
         </is>
       </c>
       <c r="I15" s="15" t="n"/>
@@ -1400,7 +1396,7 @@
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>294798b1-178a-42c5-a46c-eb544350d092</t>
+          <t>7f42c78e-78cb-46a2-8ad1-a0916e6a8d8f</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1417,10 +1413,14 @@
       <c r="B16" s="21" t="inlineStr"/>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Implemente máquinas virtuales SHIR en la red virtual si trabaja con datos confidenciales que no deben salir de la red corporativa</t>
-        </is>
-      </c>
-      <c r="D16" s="21" t="n"/>
+          <t>Uso del área de trabajo de red virtual administrada para restringir el acceso a través de la red pública de Internet</t>
+        </is>
+      </c>
+      <c r="D16" s="21" t="inlineStr">
+        <is>
+          <t>Al crear el área de trabajo de Azure Synapse, puede optar por asociarla a una red virtual de Microsoft Azure. Azure Synapse administra la red virtual asociada al área de trabajo. Esta red virtual se denomina red virtual de área de trabajo administrada. Esto se puede seleccionar al implementar un área de trabajo</t>
+        </is>
+      </c>
       <c r="E16" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -1434,7 +1434,7 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/data-factory/create-self-hosted-integration-runtime?tabs=data-factory</t>
+          <t>https://learn.microsoft.com/azure/synapse-analytics/security/synapse-workspace-managed-vnet?view=sql-server-ver16</t>
         </is>
       </c>
       <c r="I16" s="15" t="n"/>
@@ -1442,7 +1442,7 @@
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>d234292b-7528-4537-a551-c5bf4e4f1854</t>
+          <t>e2436b03-36db-455e-8796-0eee0bdf4cc2</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1453,23 +1453,23 @@
     <row r="17" ht="16.5" customHeight="1">
       <c r="A17" s="21" t="inlineStr">
         <is>
-          <t>Seguridad de la red</t>
+          <t>Gestión de identidades y accesos</t>
         </is>
       </c>
       <c r="B17" s="21" t="inlineStr"/>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Habilitar la protección de exfiltración de datos (DEP)</t>
+          <t>Use el identificador de Microsoft Entra como método de autenticación predeterminado y deshabilite el acceso local siempre que sea posible</t>
         </is>
       </c>
       <c r="D17" s="21" t="inlineStr">
         <is>
-          <t>Esto solo se puede hacer cuando se implementa el área de trabajo, pero las bibliotecas de Python instaladas desde repositorios públicos como PyPI no son compatibles. (Piense en la limitación antes de habilitarlo)</t>
+          <t>Use el identificador de Microsoft Entra como método de autenticación predeterminado.</t>
         </is>
       </c>
       <c r="E17" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1478,17 +1478,13 @@
         </is>
       </c>
       <c r="G17" s="21" t="n"/>
-      <c r="H17" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/synapse-analytics/security/how-to-create-a-workspace-with-data-exfiltration-protection</t>
-        </is>
-      </c>
+      <c r="H17" s="15" t="n"/>
       <c r="I17" s="15" t="n"/>
       <c r="J17" s="22" t="n"/>
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>287d5cdc-126c-4c03-8af5-b1fc6898a535</t>
+          <t>a9c26d9c-42bb-45bd-8c69-99a246e3389a</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1499,18 +1495,18 @@
     <row r="18" ht="16.5" customHeight="1">
       <c r="A18" s="21" t="inlineStr">
         <is>
-          <t>Protección de datos</t>
+          <t>Seguridad de la red</t>
         </is>
       </c>
       <c r="B18" s="21" t="inlineStr"/>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Cifrado de datos en reposo mediante claves administradas por el cliente para el área de trabajo</t>
+          <t>Configurar puntos de conexión privados para conectarse a los servicios externos y deshabilitar el acceso público</t>
         </is>
       </c>
       <c r="D18" s="21" t="inlineStr">
         <is>
-          <t>La primera capa de cifrado la realizan las claves administradas por Microsoft, puede agregar una segunda capa de cifrado mediante claves administradas por el cliente</t>
+          <t>Para proteger los datos confidenciales, se recomienda deshabilitar por completo el acceso público a los puntos de conexión del área de trabajo. Al hacerlo, garantiza que solo se pueda acceder a todos los puntos de conexión del área de trabajo mediante puntos de conexión privados.</t>
         </is>
       </c>
       <c r="E18" s="21" t="inlineStr">
@@ -1526,7 +1522,7 @@
       <c r="G18" s="21" t="n"/>
       <c r="H18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/synapse-analytics/security/workspaces-encryption</t>
+          <t>https://learn.microsoft.com/azure/synapse-analytics/security/synapse-workspace-managed-private-endpoints?view=sql-server-ver16</t>
         </is>
       </c>
       <c r="I18" s="15" t="n"/>
@@ -1534,7 +1530,7 @@
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>e337897e-31b6-47d6-9be5-962a1193846d</t>
+          <t>efc4d761-c31d-425f-bbb4-7a393a040ed3</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1545,18 +1541,18 @@
     <row r="19" ht="16.5" customHeight="1">
       <c r="A19" s="21" t="inlineStr">
         <is>
-          <t>Protección de datos</t>
+          <t>Gestión de identidades y accesos</t>
         </is>
       </c>
       <c r="B19" s="21" t="inlineStr"/>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cifrado de datos en tránsito </t>
+          <t>Uso de la identidad administrada para autenticarse en los servicios</t>
         </is>
       </c>
       <c r="D19" s="21" t="inlineStr">
         <is>
-          <t>Azure Synapse aprovecha TLS para garantizar que los datos se cifran en movimiento. Los grupos dedicados de SQL admiten las versiones TLS 1.0, TLS 1.1 y TLS 1.2 para el cifrado, en los que los controladores proporcionados por Microsoft usan TLS 1.2 de forma predeterminada. El grupo de SQL sin servidor y el grupo de Apache Spark usan TLS 1.2 para todas las conexiones de salida.</t>
+          <t>Use el identificador de Microsoft Entra como método de autenticación predeterminado.</t>
         </is>
       </c>
       <c r="E19" s="21" t="inlineStr">
@@ -1570,17 +1566,13 @@
         </is>
       </c>
       <c r="G19" s="21" t="n"/>
-      <c r="H19" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/synapse-analytics/guidance/security-white-paper-data-protection#data-in-transit</t>
-        </is>
-      </c>
+      <c r="H19" s="15" t="n"/>
       <c r="I19" s="15" t="n"/>
       <c r="J19" s="22" t="n"/>
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>697cc391-ed16-4b2d-886f-0a1241bddde6</t>
+          <t>7e42c77d-78cb-46a2-8ad1-9f916e698d8f</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1591,38 +1583,38 @@
     <row r="20" ht="16.5" customHeight="1">
       <c r="A20" s="21" t="inlineStr">
         <is>
-          <t>Protección de datos</t>
+          <t>Seguridad de la red</t>
         </is>
       </c>
       <c r="B20" s="21" t="inlineStr"/>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Almacenamiento de contraseñas, seguridades y claves en Azure Key Vault</t>
+          <t>Si se habilita el acceso público, se recomienda encarecidamente configurar las reglas de firewall de IP</t>
         </is>
       </c>
       <c r="D20" s="21" t="inlineStr">
         <is>
-          <t>Uso de Keyvaults para almacenar sus secretos y credenciales</t>
-        </is>
-      </c>
-      <c r="E20" s="21" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
+          <t>Si es necesario habilitar el acceso público, se recomienda encarecidamente configurar las reglas de firewall de IP para permitir conexiones entrantes solo desde la lista especificada de direcciones IP públicas.</t>
+        </is>
+      </c>
+      <c r="E20" s="21" t="n"/>
       <c r="F20" t="inlineStr">
         <is>
           <t>No verificado</t>
         </is>
       </c>
       <c r="G20" s="21" t="n"/>
-      <c r="H20" s="15" t="n"/>
+      <c r="H20" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/synapse-analytics/security/synapse-workspace-ip-firewall</t>
+        </is>
+      </c>
       <c r="I20" s="15" t="n"/>
       <c r="J20" s="22" t="n"/>
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>8a477cde-b486-41bc-9bc1-0ae66e25e4d5</t>
+          <t>294798b1-178a-42c5-a46c-eb544350d092</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1631,18 +1623,18 @@
       <c r="P20" s="25" t="n"/>
     </row>
     <row r="21" ht="16.5" customHeight="1">
-      <c r="A21" s="21" t="inlineStr"/>
+      <c r="A21" s="21" t="inlineStr">
+        <is>
+          <t>Gestión de identidades y accesos</t>
+        </is>
+      </c>
       <c r="B21" s="21" t="inlineStr"/>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Uso de secretos de Azure Key Vault en actividades de canalización</t>
-        </is>
-      </c>
-      <c r="D21" s="21" t="inlineStr">
-        <is>
-          <t>Puede almacenar credenciales o valores secretos en una instancia de Azure Key Vault y usarlos durante la ejecución de la canalización para pasarlos a sus actividades.</t>
-        </is>
-      </c>
+          <t>Configuración de directivas de acceso condicional para restringir el acceso en el plano de datos</t>
+        </is>
+      </c>
+      <c r="D21" s="21" t="n"/>
       <c r="E21" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -1654,17 +1646,13 @@
         </is>
       </c>
       <c r="G21" s="21" t="n"/>
-      <c r="H21" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/data-factory/how-to-use-azure-key-vault-secrets-pipeline-activities</t>
-        </is>
-      </c>
+      <c r="H21" s="15" t="n"/>
       <c r="I21" s="15" t="n"/>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>a3aec2c4-e243-46b0-936d-b55e17960eee</t>
+          <t>adfe27bd-e187-401a-a352-baa9b68a088c</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1675,23 +1663,19 @@
     <row r="22" ht="16.5" customHeight="1">
       <c r="A22" s="21" t="inlineStr">
         <is>
-          <t>Gestión de identidades y accesos</t>
+          <t>Seguridad de la red</t>
         </is>
       </c>
       <c r="B22" s="21" t="inlineStr"/>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Restrinja el uso de usuarios locales siempre que sea necesario</t>
-        </is>
-      </c>
-      <c r="D22" s="21" t="inlineStr">
-        <is>
-          <t>Restrinja el uso de métodos de autenticación locales para el acceso al plano de datos. En su lugar, use Microsoft Entra ID como método de autenticación predeterminado para controlar el acceso al plano de datos.</t>
-        </is>
-      </c>
+          <t>Implemente máquinas virtuales SHIR en la red virtual si trabaja con datos confidenciales que no deben salir de la red corporativa</t>
+        </is>
+      </c>
+      <c r="D22" s="21" t="n"/>
       <c r="E22" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1700,13 +1684,17 @@
         </is>
       </c>
       <c r="G22" s="21" t="n"/>
-      <c r="H22" s="15" t="n"/>
+      <c r="H22" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/data-factory/create-self-hosted-integration-runtime?tabs=data-factory</t>
+        </is>
+      </c>
       <c r="I22" s="15" t="n"/>
       <c r="J22" s="22" t="n"/>
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>0bdf4cc2-efc4-4d76-8c31-d25ffbb47a39</t>
+          <t>d234292b-7528-4537-a551-c5bf4e4f1854</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1723,17 +1711,17 @@
       <c r="B23" s="21" t="inlineStr"/>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Uso de la identidad administrada para autenticarse en los servicios</t>
+          <t>Use Azure Key Vaults para almacenar secretos y créditos.</t>
         </is>
       </c>
       <c r="D23" s="21" t="inlineStr">
         <is>
-          <t>Las identidades administradas eliminan la necesidad de administrar credenciales. Las identidades administradas proporcionan una identidad para la instancia de servicio al conectarse a recursos que admiten la autenticación de Microsoft Entra.</t>
+          <t>Restringir la exposición de claves y seguridades</t>
         </is>
       </c>
       <c r="E23" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1742,17 +1730,13 @@
         </is>
       </c>
       <c r="G23" s="21" t="n"/>
-      <c r="H23" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/data-factory/data-factory-service-identity</t>
-        </is>
-      </c>
+      <c r="H23" s="15" t="n"/>
       <c r="I23" s="15" t="n"/>
       <c r="J23" s="22" t="n"/>
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>3a040ed3-2947-498b-8178-a2c5a46ceb54</t>
+          <t>9a80822b-8eb9-4d1b-a77f-26e5e6beba8e</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1763,23 +1747,23 @@
     <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="21" t="inlineStr">
         <is>
-          <t>Gestión de identidades y accesos</t>
+          <t>Seguridad de la red</t>
         </is>
       </c>
       <c r="B24" s="21" t="inlineStr"/>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Separe y limite los usuarios administrativos o con muchos privilegios y habilite las directivas condicionales y de MFA</t>
+          <t>Habilitar la protección de exfiltración de datos (DEP)</t>
         </is>
       </c>
       <c r="D24" s="21" t="inlineStr">
         <is>
-          <t>Si no es necesario para las operaciones administrativas rutinarias, deshabilite o restrinja las cuentas de administrador local solo para uso de emergencia.</t>
+          <t>Esto solo se puede hacer cuando se implementa el área de trabajo, pero las bibliotecas de Python instaladas desde repositorios públicos como PyPI no son compatibles. (Piense en la limitación antes de habilitarlo)</t>
         </is>
       </c>
       <c r="E24" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1788,13 +1772,17 @@
         </is>
       </c>
       <c r="G24" s="21" t="n"/>
-      <c r="H24" s="15" t="n"/>
+      <c r="H24" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/synapse-analytics/security/how-to-create-a-workspace-with-data-exfiltration-protection</t>
+        </is>
+      </c>
       <c r="I24" s="15" t="n"/>
       <c r="J24" s="22" t="n"/>
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>4350d092-d234-4292-a752-8537a551c5bf</t>
+          <t>287d5cdc-126c-4c03-8af5-b1fc6898a535</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1805,19 +1793,19 @@
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" s="21" t="inlineStr">
         <is>
-          <t>Seguridad de la red</t>
+          <t>Gestión de identidades y accesos</t>
         </is>
       </c>
       <c r="B25" s="21" t="inlineStr"/>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Deshabilite el acceso a través de Internet público y configure las reglas de firewall o las reglas de servicios de confianza</t>
+          <t>Separe y limite los usuarios con muchos privilegios/administrativos</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
       <c r="E25" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1832,7 +1820,7 @@
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>4e4f1854-287d-45cd-a126-cc032af5b1fc</t>
+          <t>d4f3437c-c336-4d81-9f27-a71efe1b9b5d</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1843,16 +1831,20 @@
     <row r="26" ht="16.5" customHeight="1">
       <c r="A26" s="21" t="inlineStr">
         <is>
-          <t>Seguridad de la red</t>
+          <t>Gestión de identidades y accesos</t>
         </is>
       </c>
       <c r="B26" s="21" t="inlineStr"/>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Implemente máquinas virtuales SHIR en la red virtual si trabaja con datos confidenciales que no deben salir de la red corporativa</t>
-        </is>
-      </c>
-      <c r="D26" s="21" t="n"/>
+          <t>Autenticar el acceso a los recursos de Event Hubs mediante firmas de acceso compartido (SAS) y restringir a los usuarios locales</t>
+        </is>
+      </c>
+      <c r="D26" s="21" t="inlineStr">
+        <is>
+          <t>Al crear un espacio de nombres de Event Hubs, se crea automáticamente una regla de directiva denominada RootManageSharedAccessKey para el espacio de nombres. Esta política tiene permisos de administración para todo el espacio de nombres. Se recomienda tratar esta regla como una cuenta raíz administrativa y no usarla en la aplicación. Puede crear reglas de directiva adicionales en la pestaña Configurar para el espacio de nombres en el portal, a través de PowerShell o la CLI de Azure. Evite el uso de métodos o cuentas de autenticación locales, estos deben deshabilitarse siempre que sea posible. En su lugar, use Azure AD para autenticarse siempre que sea posible.</t>
+        </is>
+      </c>
       <c r="E26" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -1864,13 +1856,17 @@
         </is>
       </c>
       <c r="G26" s="21" t="n"/>
-      <c r="H26" s="15" t="n"/>
+      <c r="H26" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/event-hubs/authenticate-shared-access-signature</t>
+        </is>
+      </c>
       <c r="I26" s="15" t="n"/>
       <c r="J26" s="22" t="n"/>
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>6898a535-e337-4897-b31b-67d67be5962a</t>
+          <t>9de0d5d7-21d4-41d2-900c-817bf9eac41f</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1881,18 +1877,18 @@
     <row r="27" ht="16.5" customHeight="1">
       <c r="A27" s="21" t="inlineStr">
         <is>
-          <t>Seguridad de la red</t>
+          <t>Gestión de identidades y accesos</t>
         </is>
       </c>
       <c r="B27" s="21" t="inlineStr"/>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Uso de IR de red virtual administrada para restringir el acceso a través de la red pública de Internet para Azure Integration Runtime</t>
+          <t xml:space="preserve">Uso de RBAC de Azure para precisar el acceso </t>
         </is>
       </c>
       <c r="D27" s="21" t="inlineStr">
         <is>
-          <t>Al crear un entorno de ejecución de integración de Azure dentro de una red virtual administrada de Data Factory, el entorno de ejecución de integración se aprovisiona con la red virtual administrada. Utiliza puntos de conexión privados para conectarse de forma segura a los almacenes de datos compatibles.</t>
+          <t>Use el control de acceso basado en roles de Azure (RBAC de Azure) para administrar el acceso a los recursos de Azure a través de asignaciones de roles integradas. Los roles de RBAC de Azure se pueden asignar a usuarios, grupos, entidades de servicio e identidades administradas.</t>
         </is>
       </c>
       <c r="E27" s="21" t="inlineStr">
@@ -1906,12 +1902,16 @@
         </is>
       </c>
       <c r="G27" s="21" t="n"/>
-      <c r="H27" s="15" t="n"/>
+      <c r="H27" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/event-hubs/authorize-access-azure-active-directory</t>
+        </is>
+      </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>1193846d-697c-4c39-8ed1-6b2d186f0a12</t>
+          <t>387e5ced-127d-4d14-8b06-b20c6999a646</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -1922,18 +1922,18 @@
     <row r="28" ht="16.5" customHeight="1">
       <c r="A28" s="21" t="inlineStr">
         <is>
-          <t>Seguridad de la red</t>
+          <t>Protección de datos</t>
         </is>
       </c>
       <c r="B28" s="21" t="inlineStr"/>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Configuración de puntos de conexión privados administrados para conectarse a recursos mediante Azure IR administrado</t>
+          <t>Cifrado de datos en reposo mediante claves administradas por el cliente para el área de trabajo</t>
         </is>
       </c>
       <c r="D28" s="21" t="inlineStr">
         <is>
-          <t>Los puntos de conexión privados administrados son puntos de conexión privados creados en la red virtual administrada de Data Factory que establece un vínculo privado a los recursos de Azure. Data Factory administra estos puntos de conexión privados en su nombre.</t>
+          <t>La primera capa de cifrado la realizan las claves administradas por Microsoft, puede agregar una segunda capa de cifrado mediante claves administradas por el cliente</t>
         </is>
       </c>
       <c r="E28" s="21" t="inlineStr">
@@ -1949,14 +1949,14 @@
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/data-factory/managed-virtual-network-private-endpoint#managed-private-endpoints</t>
+          <t>https://learn.microsoft.com/azure/synapse-analytics/security/workspaces-encryption</t>
         </is>
       </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>41bddde6-8a47-47cd-bb48-61bc3bc10ae6</t>
+          <t>e337897e-31b6-47d6-9be5-962a1193846d</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -1965,16 +1965,20 @@
       <c r="P28" s="25" t="n"/>
     </row>
     <row r="29" ht="16.5" customHeight="1">
-      <c r="A29" s="21" t="inlineStr"/>
+      <c r="A29" s="21" t="inlineStr">
+        <is>
+          <t>Gestión de redes</t>
+        </is>
+      </c>
       <c r="B29" s="21" t="inlineStr"/>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Configuración de vínculos privados para conectarse a orígenes en la red virtual del cliente y la factoría de datos</t>
+          <t>Desactivar el acceso a la red pública</t>
         </is>
       </c>
       <c r="D29" s="21" t="inlineStr">
         <is>
-          <t>Con Azure Private Link, puede conectarse a varias implementaciones de plataforma como servicio (PaaS) en Azure a través de un punto de conexión privado. Un punto de conexión privado es una dirección IP privada dentro de una red virtual y una subred específicas</t>
+          <t>El servicio admite la deshabilitación del acceso a la red pública mediante el uso de una regla de filtrado de ACL de IP de nivel de servicio (no NSG ni Azure Firewall) o mediante un conmutador de alternancia "Deshabilitar el acceso a la red pública".</t>
         </is>
       </c>
       <c r="E29" s="21" t="inlineStr">
@@ -1988,16 +1992,12 @@
         </is>
       </c>
       <c r="G29" s="21" t="n"/>
-      <c r="H29" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/data-factory/data-factory-private-link</t>
-        </is>
-      </c>
+      <c r="H29" s="15" t="n"/>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>b47a393a-0804-4272-a479-8b1578b219a4</t>
+          <t>f3389a7e-42c7-48e7-ac06-a62a2194956e</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2014,12 +2014,12 @@
       <c r="B30" s="21" t="inlineStr"/>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Cifrado de datos en reposo mediante claves administradas de Microsoft</t>
+          <t xml:space="preserve">Cifrado de datos en tránsito </t>
         </is>
       </c>
       <c r="D30" s="21" t="inlineStr">
         <is>
-          <t>Esta es una configuración predeterminada</t>
+          <t>Azure Synapse aprovecha TLS para garantizar que los datos se cifran en movimiento. Los grupos dedicados de SQL admiten las versiones TLS 1.0, TLS 1.1 y TLS 1.2 para el cifrado, en los que los controladores proporcionados por Microsoft usan TLS 1.2 de forma predeterminada. El grupo de SQL sin servidor y el grupo de Apache Spark usan TLS 1.2 para todas las conexiones de salida.</t>
         </is>
       </c>
       <c r="E30" s="21" t="inlineStr">
@@ -2033,12 +2033,16 @@
         </is>
       </c>
       <c r="G30" s="21" t="n"/>
-      <c r="H30" s="15" t="n"/>
+      <c r="H30" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/synapse-analytics/guidance/security-white-paper-data-protection#data-in-transit</t>
+        </is>
+      </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>6ceb5443-5135-4922-9442-93bb628637a5</t>
+          <t>697cc391-ed16-4b2d-886f-0a1241bddde6</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2049,20 +2053,16 @@
     <row r="31" ht="16.5" customHeight="1">
       <c r="A31" s="21" t="inlineStr">
         <is>
-          <t>Protección de datos</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="B31" s="21" t="inlineStr"/>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Cifrado de datos en tránsito por claves administradas de Microsoft</t>
-        </is>
-      </c>
-      <c r="D31" s="21" t="inlineStr">
-        <is>
-          <t>Esta es una configuración predeterminada</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Uso de redes virtuales para aislar el tráfico a través de una red restringida </t>
+        </is>
+      </c>
+      <c r="D31" s="21" t="n"/>
       <c r="E31" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -2079,7 +2079,7 @@
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>5119b08e-8f58-4543-a7e9-cec166cd072a</t>
+          <t>6a8dc4a2-fe27-4b2e-8870-1a1352beedf7</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2096,17 +2096,17 @@
       <c r="B32" s="21" t="inlineStr"/>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Cifrado de datos en tránsito por BYOK (claves administradas por el cliente)</t>
+          <t>Almacenamiento de contraseñas, seguridades y claves en Azure Key Vault</t>
         </is>
       </c>
       <c r="D32" s="21" t="inlineStr">
         <is>
-          <t>Cuando se especifica una clave administrada por el cliente, Data Factory usa tanto la clave del sistema de fábrica como la CMK para cifrar los datos del cliente. Si no se produce ninguno de ellos, se denegaría el acceso a los datos y a la fábrica.</t>
+          <t>Uso de Keyvaults para almacenar sus secretos y credenciales</t>
         </is>
       </c>
       <c r="E32" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2115,17 +2115,13 @@
         </is>
       </c>
       <c r="G32" s="21" t="n"/>
-      <c r="H32" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/data-factory/enable-customer-managed-key</t>
-        </is>
-      </c>
+      <c r="H32" s="15" t="n"/>
       <c r="I32" s="15" t="n"/>
       <c r="J32" s="22" t="n"/>
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>f9b241a9-98a5-435e-9378-97e71ca7da8c</t>
+          <t>8a477cde-b486-41bc-9bc1-0ae66e25e4d5</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2136,19 +2132,19 @@
     <row r="33" ht="16.5" customHeight="1">
       <c r="A33" s="21" t="inlineStr">
         <is>
-          <t>Protección de datos</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="B33" s="21" t="inlineStr"/>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Almacenamiento de contraseñas y secretos en Azure Key Vault</t>
+          <t>Implemente puntos de conexión privados para todos los recursos de Azure que admitan la característica Private Link para establecer un punto de acceso privado para los recursos.</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
       <c r="E33" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2159,7 +2155,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/data-factory/store-credentials-in-key-vault, https:/learn.microsoft.com/azure/data-factory/how-to-use-azure-key-vault-secrets-pipeline-activities</t>
+          <t>https://learn.microsoft.com/azure/event-hubs/private-link-service</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2167,7 +2163,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>faa62a15-9495-46da-a7dc-3a23267b2258</t>
+          <t>9b488dee-c496-42cc-9cd2-1bf77f26e5e6</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2176,11 +2172,7 @@
       <c r="P33" s="25" t="n"/>
     </row>
     <row r="34" ht="16.5" customHeight="1">
-      <c r="A34" s="21" t="inlineStr">
-        <is>
-          <t>Protección de datos</t>
-        </is>
-      </c>
+      <c r="A34" s="21" t="inlineStr"/>
       <c r="B34" s="21" t="inlineStr"/>
       <c r="C34" s="21" t="inlineStr">
         <is>
@@ -2213,7 +2205,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>6f4a1652-bddd-4ea8-a487-cdec4861bc3b</t>
+          <t>a3aec2c4-e243-46b0-936d-b55e17960eee</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2230,12 +2222,12 @@
       <c r="B35" s="21" t="inlineStr"/>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Cifrado de credenciales para el entorno local mediante almacenes de datos SHIR en Azure Data Factory</t>
+          <t>Utilice las funciones del área de trabajo para proporcionar acceso a los usuarios en los datos</t>
         </is>
       </c>
       <c r="D35" s="21" t="inlineStr">
         <is>
-          <t>Puede cifrar y almacenar credenciales para cualquiera de los almacenes de datos locales (servicios vinculados con información confidencial) en un equipo con tiempo de ejecución de integración autohospedado.</t>
+          <t>Fabric controla el acceso a los datos mediante espacios de trabajo. En los espacios de trabajo, los datos aparecen en forma de elementos de tejido y los usuarios no pueden ver ni usar elementos (datos) a menos que les conceda acceso al espacio de trabajo. Puede encontrar más información sobre los permisos del área de trabajo y los elementos en Modelo de permisos.</t>
         </is>
       </c>
       <c r="E35" s="21" t="inlineStr">
@@ -2251,7 +2243,7 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/data-factory/encrypt-credentials-self-hosted-integration-runtime</t>
+          <t>https://learn.microsoft.com/fabric/security/permission-model</t>
         </is>
       </c>
       <c r="I35" s="15" t="n"/>
@@ -2259,7 +2251,7 @@
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>c14aeb7e-66e8-4d9a-9bec-218e6436b173</t>
+          <t>b3bed3d5-f353-47c1-946d-c56028a71ffe</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2270,16 +2262,20 @@
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="21" t="inlineStr">
         <is>
-          <t>Gestión de identidades y accesos</t>
+          <t>Protección de datos</t>
         </is>
       </c>
       <c r="B36" s="21" t="inlineStr"/>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Definir roles y responsabilidades para administrar Microsoft Purview en el plano de control y el plano de datos</t>
-        </is>
-      </c>
-      <c r="D36" s="21" t="n"/>
+          <t xml:space="preserve">Utilice RBAC en Onelake para proporcionar acceso detallado a los datos en Tablas/Archivos Onelake </t>
+        </is>
+      </c>
+      <c r="D36" s="21" t="inlineStr">
+        <is>
+          <t>RBAC de OneLake usa asignaciones de roles para aplicar permisos a sus miembros.</t>
+        </is>
+      </c>
       <c r="E36" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -2291,13 +2287,17 @@
         </is>
       </c>
       <c r="G36" s="21" t="n"/>
-      <c r="H36" s="15" t="n"/>
+      <c r="H36" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/fabric/onelake/security/data-access-control-model</t>
+        </is>
+      </c>
       <c r="I36" s="15" t="n"/>
       <c r="J36" s="22" t="n"/>
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>6db55f57-9603-4334-adf9-cc23418db612</t>
+          <t>1bd05dd2-e0d5-4d77-8d41-e3611cc57b4a</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2308,18 +2308,18 @@
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="21" t="inlineStr">
         <is>
-          <t>Gestión de identidades y accesos</t>
+          <t>Protección de datos</t>
         </is>
       </c>
       <c r="B37" s="21" t="inlineStr"/>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Definición de roles y tareas necesarios para implementar y administrar Microsoft Purview dentro de una suscripción de Azure (plano de control)</t>
+          <t>Al usar accesos directos, la identidad del usuario también debe tener acceso en la ubicación de destino del acceso directo</t>
         </is>
       </c>
       <c r="D37" s="21" t="inlineStr">
         <is>
-          <t>Use RBAC de Azure para esto</t>
+          <t>Tenga en cuenta el acceso del usuario tanto en la ubicación de destino como en la de origen del acceso directo</t>
         </is>
       </c>
       <c r="E37" s="21" t="inlineStr">
@@ -2335,15 +2335,19 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/best-practices</t>
-        </is>
-      </c>
-      <c r="I37" s="15" t="n"/>
+          <t>https://learn.microsoft.com/fabric/onelake/security/data-access-control-model#shortcuts</t>
+        </is>
+      </c>
+      <c r="I37" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J37" s="22" t="n"/>
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>8126504b-b47a-4393-a080-427294798b15</t>
+          <t>4b1410d4-3958-498c-8288-b3c6a57cfc64</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2354,18 +2358,18 @@
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="21" t="inlineStr">
         <is>
-          <t>Gestión de identidades y accesos</t>
+          <t>Protección de datos</t>
         </is>
       </c>
       <c r="B38" s="21" t="inlineStr"/>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Defina los roles y las tareas necesarias para realizar la administración y la gobernanza de datos mediante Microsoft Purview. (Plano de datos para el mapa de datos y el catálogo de datos).</t>
+          <t>Restrinja el suministro de roles de nivel de área de trabajo a los usuarios en lugar de compartir un elemento solo con los usuarios</t>
         </is>
       </c>
       <c r="D38" s="21" t="inlineStr">
         <is>
-          <t>Use los roles de Microsoft Purview para esto.</t>
+          <t>No todos los usuarios necesitan tener acceso a todo el espacio de trabajo mediante roles, por lo tanto, restrinja la asignación de roles en todo el espacio de trabajo y solo comparta el elemento con el usuario mediante la función de compartir elemento o el permiso de administración en Fabric</t>
         </is>
       </c>
       <c r="E38" s="21" t="inlineStr">
@@ -2381,15 +2385,19 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/purview/classic-data-governance-permissions#roles,  https://learn.microsoft.com/azure/role-based-access-control/best-practices</t>
-        </is>
-      </c>
-      <c r="I38" s="15" t="n"/>
+          <t>https://learn.microsoft.com/fabric/get-started/share-items</t>
+        </is>
+      </c>
+      <c r="I38" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J38" s="22" t="n"/>
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>78b219a4-6ceb-4544-9513-5922744293bb</t>
+          <t>4451e1a3-d345-43a3-a763-9637a552d5c1</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2400,16 +2408,20 @@
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="21" t="inlineStr">
         <is>
-          <t>Gestión de identidades y accesos</t>
+          <t>Protección de datos</t>
         </is>
       </c>
       <c r="B39" s="21" t="inlineStr"/>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Asigne roles a grupos de Microsoft Entra en lugar de asignar roles a usuarios individuales.</t>
-        </is>
-      </c>
-      <c r="D39" s="21" t="n"/>
+          <t>Limite el acceso a los datos mediante la definición de RLS, CLS y enmascaramiento de datos dinámicos en los puntos de conexión de análisis de SQL y Warehouse</t>
+        </is>
+      </c>
+      <c r="D39" s="21" t="inlineStr">
+        <is>
+          <t>Utilice características como RLS, CLS y enmascaramiento dinámico de datos para mejorar los requisitos de seguridad de datos en cargas de trabajo SQL.</t>
+        </is>
+      </c>
       <c r="E39" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -2421,13 +2433,21 @@
         </is>
       </c>
       <c r="G39" s="21" t="n"/>
-      <c r="H39" s="15" t="n"/>
-      <c r="I39" s="15" t="n"/>
+      <c r="H39" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/fabric/data-warehouse/tutorial-row-level-security</t>
+        </is>
+      </c>
+      <c r="I39" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>628637a5-5119-4b08-b8f5-854387e9cec1</t>
+          <t>5e401965-387e-45ce-b127-dd142b06b20c</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2438,16 +2458,20 @@
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="21" t="inlineStr">
         <is>
-          <t>Gestión de identidades y accesos</t>
+          <t>Protección de datos</t>
         </is>
       </c>
       <c r="B40" s="21" t="inlineStr"/>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Active Directory Entitlement Management para asignar el acceso de los usuarios a los grupos de Microsoft Entra mediante paquetes de acceso.</t>
-        </is>
-      </c>
-      <c r="D40" s="21" t="n"/>
+          <t>Limite el acceso a los datos definiendo RLS y OLS en modelos semánticos en Power BI</t>
+        </is>
+      </c>
+      <c r="D40" s="21" t="inlineStr">
+        <is>
+          <t>Use características como RLS y OLS en Power BI para tener más características de seguridad en los modelos semánticos</t>
+        </is>
+      </c>
       <c r="E40" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -2461,15 +2485,19 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/governance/entitlement-management-overview</t>
-        </is>
-      </c>
-      <c r="I40" s="15" t="n"/>
+          <t>https://learn.microsoft.com/fabric/security/service-admin-row-level-security</t>
+        </is>
+      </c>
+      <c r="I40" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>66cd072a-f9b2-441a-a98a-535e737897e7</t>
+          <t>6999a646-f338-49a7-b42c-78e78c06a62a</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2480,19 +2508,23 @@
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="21" t="inlineStr">
         <is>
-          <t>Gestión de identidades y accesos</t>
+          <t>Protección de datos</t>
         </is>
       </c>
       <c r="B41" s="21" t="inlineStr"/>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Aplique la autenticación multifactor para los usuarios de Microsoft Purview, especialmente para los usuarios con roles con privilegios, como administradores de colecciones, administradores de orígenes de datos o conservadores de datos.</t>
-        </is>
-      </c>
-      <c r="D41" s="21" t="n"/>
+          <t>Cifrar datos en reposo</t>
+        </is>
+      </c>
+      <c r="D41" s="21" t="inlineStr">
+        <is>
+          <t>En Fabric, todos los datos que se almacenan en OneLake se cifran en reposo</t>
+        </is>
+      </c>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2502,12 +2534,16 @@
       </c>
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="n"/>
-      <c r="I41" s="15" t="n"/>
+      <c r="I41" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J41" s="22" t="n"/>
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>1ca7da8c-faa6-42a1-9949-56da97dc3a23</t>
+          <t>2194956e-6a8d-4c4a-8fe2-7b2e28701a13</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2518,19 +2554,23 @@
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="inlineStr">
         <is>
-          <t>Gestión de identidades y accesos</t>
+          <t>Protección de datos</t>
         </is>
       </c>
       <c r="B42" s="21" t="inlineStr"/>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Use el identificador de Microsoft Entra para proporcionar autenticación y autorización a todos los usuarios, grupos de seguridad registrados en Entra, entidad de servicio e identidades administradas dentro de colecciones en Microsoft Purview</t>
-        </is>
-      </c>
-      <c r="D42" s="21" t="n"/>
+          <t>Cifrar datos en tránsito</t>
+        </is>
+      </c>
+      <c r="D42" s="21" t="inlineStr">
+        <is>
+          <t>Los datos en tránsito a través de la red pública de Internet entre los servicios de Microsoft siempre se cifran con al menos TLS 1.2. Fabric negocia con TLS 1.3 siempre que sea posible.</t>
+        </is>
+      </c>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2540,12 +2580,16 @@
       </c>
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="n"/>
-      <c r="I42" s="15" t="n"/>
+      <c r="I42" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J42" s="22" t="n"/>
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>267b2258-6f4a-4165-8bdd-dea8a487cdec</t>
+          <t>52beedf7-9b48-48de-bc49-62cc3cd21bf7</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2562,10 +2606,14 @@
       <c r="B43" s="21" t="inlineStr"/>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Definir el modelo de privilegios mínimos y la menor exposición de cuentas con privilegios</t>
-        </is>
-      </c>
-      <c r="D43" s="21" t="n"/>
+          <t>Restrinja el uso de usuarios locales siempre que sea necesario</t>
+        </is>
+      </c>
+      <c r="D43" s="21" t="inlineStr">
+        <is>
+          <t>Restrinja el uso de métodos de autenticación locales para el acceso al plano de datos. En su lugar, use Microsoft Entra ID como método de autenticación predeterminado para controlar el acceso al plano de datos.</t>
+        </is>
+      </c>
       <c r="E43" s="21" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -2583,7 +2631,7 @@
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>4861bc3b-c14a-4eb7-b66e-8d9a3bec218e</t>
+          <t>0bdf4cc2-efc4-4d76-8c31-d25ffbb47a39</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2594,16 +2642,20 @@
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="21" t="inlineStr">
         <is>
-          <t>Seguridad de la red</t>
+          <t>Gestión de identidades y accesos</t>
         </is>
       </c>
       <c r="B44" s="21" t="inlineStr"/>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Habilite el aislamiento de red de extremo a extremo mediante el servicio Private Link. (Mapa de datos de Microsoft Purview)</t>
-        </is>
-      </c>
-      <c r="D44" s="21" t="n"/>
+          <t>Usar el identificador de Microsoft Entra como método de autenticación predeterminado</t>
+        </is>
+      </c>
+      <c r="D44" s="21" t="inlineStr">
+        <is>
+          <t>No hay necesidad de hacer nada. Cada solicitud para conectarse a Fabric se autentica con Microsoft Entra ID, lo que permite a los usuarios conectarse de forma segura a Fabric desde su oficina corporativa, cuando trabajan en casa o desde una ubicación remota.</t>
+        </is>
+      </c>
       <c r="E44" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -2615,17 +2667,17 @@
         </is>
       </c>
       <c r="G44" s="21" t="n"/>
-      <c r="H44" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/purview/catalog-private-link-end-to-end</t>
-        </is>
-      </c>
-      <c r="I44" s="15" t="n"/>
+      <c r="H44" s="15" t="n"/>
+      <c r="I44" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J44" s="22" t="n"/>
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>6436b173-6db5-45f5-9960-3334bdf9cc23</t>
+          <t>7f26e5e6-b3be-4d3d-9f35-37c1346dc560</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2636,16 +2688,20 @@
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="21" t="inlineStr">
         <is>
-          <t>Seguridad de la red</t>
+          <t>Gestión de identidades y accesos</t>
         </is>
       </c>
       <c r="B45" s="21" t="inlineStr"/>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Use el firewall de Microsoft Purview para deshabilitar el acceso público. (Mapa de datos de Microsoft Purview)</t>
-        </is>
-      </c>
-      <c r="D45" s="21" t="n"/>
+          <t>Uso de la identidad administrada para autenticarse en los servicios</t>
+        </is>
+      </c>
+      <c r="D45" s="21" t="inlineStr">
+        <is>
+          <t>Las identidades administradas eliminan la necesidad de administrar credenciales. Las identidades administradas proporcionan una identidad para la instancia de servicio al conectarse a recursos que admiten la autenticación de Microsoft Entra.</t>
+        </is>
+      </c>
       <c r="E45" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -2659,14 +2715,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/purview/catalog-private-link-end-to-end#firewalls-to-restrict-public-access</t>
+          <t>https://learn.microsoft.com/azure/data-factory/data-factory-service-identity</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>418db612-8126-4504-ab47-a393a0804272</t>
+          <t>3a040ed3-2947-498b-8178-a2c5a46ceb54</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2677,16 +2733,20 @@
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="21" t="inlineStr">
         <is>
-          <t>Seguridad de la red</t>
+          <t>Gestión de identidades y accesos</t>
         </is>
       </c>
       <c r="B46" s="21" t="inlineStr"/>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Implemente reglas de grupo de seguridad de red (NSG) para subredes en las que se implementan puntos de conexión privados de orígenes de datos de Azure, puntos de conexión privados de Microsoft Purview y máquinas virtuales en tiempo de ejecución autohospedadas. (Mapa de datos de Microsoft Purview)</t>
-        </is>
-      </c>
-      <c r="D46" s="21" t="n"/>
+          <t>Usar la identidad del área de trabajo para autenticarse en los servicios</t>
+        </is>
+      </c>
+      <c r="D46" s="21" t="inlineStr">
+        <is>
+          <t>Una identidad de área de trabajo de Fabric es una entidad de servicio administrada automáticamente que se puede asociar a un área de trabajo de Fabric. Las identidades del área de trabajo se pueden crear en la configuración del área de trabajo de cualquier área de trabajo, excepto Mis áreas de trabajo. A una identidad de área de trabajo se le asigna automáticamente el rol de colaborador del área de trabajo y tiene acceso a los elementos del área de trabajo.  Limitación: Se produce un error al escribir en el destino del acceso directo cuando se utiliza la identidad del área de trabajo como método de autenticación. Las conexiones con workspace-identity-authentication solo se pueden usar en accesos directos y canalizaciones de datos de Onelake.</t>
+        </is>
+      </c>
       <c r="E46" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -2700,7 +2760,7 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/purview/concept-best-practices-security#use-network-security-groups</t>
+          <t>https://learn.microsoft.com/fabric/security/workspace-identity</t>
         </is>
       </c>
       <c r="I46" s="15" t="n"/>
@@ -2708,7 +2768,7 @@
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>94798b15-78b2-419a-96ce-b54435135922</t>
+          <t>28a71ffe-1bd0-45dd-8e0d-5d771d41e361</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2719,19 +2779,23 @@
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="21" t="inlineStr">
         <is>
-          <t>Seguridad de la red</t>
+          <t>Gestión de identidades y accesos</t>
         </is>
       </c>
       <c r="B47" s="21" t="inlineStr"/>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Implemente Microsoft Purview con puntos de conexión privados administrados por una aplicación virtual de red, como Azure Firewall, para la inspección y el filtrado de red. (Mapa de datos de Microsoft Purview)</t>
-        </is>
-      </c>
-      <c r="D47" s="21" t="n"/>
+          <t>Separe y limite los usuarios administrativos o con muchos privilegios y habilite las directivas condicionales y de MFA</t>
+        </is>
+      </c>
+      <c r="D47" s="21" t="inlineStr">
+        <is>
+          <t>Si no es necesario para las operaciones administrativas rutinarias, deshabilite o restrinja las cuentas de administrador local solo para uso de emergencia.</t>
+        </is>
+      </c>
       <c r="E47" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2740,17 +2804,13 @@
         </is>
       </c>
       <c r="G47" s="21" t="n"/>
-      <c r="H47" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/firewall/overview</t>
-        </is>
-      </c>
+      <c r="H47" s="15" t="n"/>
       <c r="I47" s="15" t="n"/>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>744293bb-6286-437a-9511-9b08e8f58543</t>
+          <t>4350d092-d234-4292-a752-8537a551c5bf</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2761,18 +2821,18 @@
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="21" t="inlineStr">
         <is>
-          <t>Seguridad de la red</t>
+          <t>Gestión de identidades y accesos</t>
         </is>
       </c>
       <c r="B48" s="21" t="inlineStr"/>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Implemente puntos de conexión privados para cuentas de Microsoft Purview para agregar otra capa de seguridad, de modo que solo las llamadas de cliente que se originan desde la red virtual puedan acceder a la cuenta de Microsoft Purview</t>
+          <t>Proporcionar roles RBAC en la cuenta de almacenamiento a la identidad administrada para establecer una conexión correcta</t>
         </is>
       </c>
       <c r="D48" s="21" t="inlineStr">
         <is>
-          <t>Este punto de conexión privado también es un requisito previo para el punto de conexión privado del portal. El punto de conexión privado del portal de Microsoft Purview es necesario para habilitar la conectividad con el portal de gobernanza de Microsoft Purview mediante una red privada. Microsoft Purview puede examinar orígenes de datos en Azure o en un entorno local mediante puntos de conexión privados de ingesta. Limitaciones en el uso de puntos de conexión privados https://learn.microsoft.com/purview/catalog-private-link-troubleshoot</t>
+          <t>Concesión de permisos de identidad en la cuenta de almacenamiento</t>
         </is>
       </c>
       <c r="E48" s="21" t="inlineStr">
@@ -2788,14 +2848,14 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/purview/concept-best-practices-network</t>
+          <t>https://learn.microsoft.com/fabric/security/workspace-identity-authenticate#step-2-grant-the-identity-permissions-on-the-storage-account</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>87e9cec1-66cd-4072-af9b-241a998a535e</t>
+          <t>1cc57b4a-4b14-410d-9395-898c2288b3c6</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -2812,14 +2872,10 @@
       <c r="B49" s="21" t="inlineStr"/>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>Bloquear el acceso público mediante el firewall de Microsoft Purview</t>
-        </is>
-      </c>
-      <c r="D49" s="21" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/purview/catalog-private-link-end-to-end#firewalls-to-restrict-public-access. Limitación a revisar: https://learn.microsoft.com/purview/catalog-private-link-troubleshoot</t>
-        </is>
-      </c>
+          <t>Deshabilite el acceso a través de Internet público y configure las reglas de firewall o las reglas de servicios de confianza</t>
+        </is>
+      </c>
+      <c r="D49" s="21" t="n"/>
       <c r="E49" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -2836,7 +2892,7 @@
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>b7bcdb3b-51eb-42ec-84ed-a6e59d8d9a2e</t>
+          <t>4e4f1854-287d-45cd-a126-cc032af5b1fc</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -2847,16 +2903,20 @@
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="21" t="inlineStr">
         <is>
-          <t>Seguridad de la red</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="B50" s="21" t="inlineStr"/>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Uso de grupos de seguridad de red para filtrar el tráfico de red hacia y desde los recursos de Azure en una red virtual de Azure</t>
-        </is>
-      </c>
-      <c r="D50" s="21" t="n"/>
+          <t xml:space="preserve">Configurar el acceso al área de trabajo de confianza para acceder a la cuenta de almacenamiento detrás del firewall </t>
+        </is>
+      </c>
+      <c r="D50" s="21" t="inlineStr">
+        <is>
+          <t>Las áreas de trabajo de Fabric con una identidad de área de trabajo pueden leer o escribir de forma segura en cuentas de Azure Data Lake Storage Gen2 habilitadas para firewall a través del acceso de confianza al área de trabajo para accesos directos de OneLake.</t>
+        </is>
+      </c>
       <c r="E50" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -2870,7 +2930,7 @@
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/private-link/disable-private-endpoint-network-policy, https:/learn.microsoft.com/purview/concept-best-practices-security#use-network-security-groups</t>
+          <t>https://learn.microsoft.com/fabric/security/security-trusted-workspace-access</t>
         </is>
       </c>
       <c r="I50" s="15" t="n"/>
@@ -2878,7 +2938,7 @@
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>db217e67-6abf-4669-aa48-e5a96f2223ec</t>
+          <t>a57cfc64-4451-4e1a-9d34-53a3c7639637</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -2889,23 +2949,19 @@
     <row r="51" ht="16.5" customHeight="1">
       <c r="A51" s="21" t="inlineStr">
         <is>
-          <t>Protección de datos</t>
+          <t>Seguridad de la red</t>
         </is>
       </c>
       <c r="B51" s="21" t="inlineStr"/>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Si tiene datos confidenciales que no pueden salir del límite de la red virtual local, se recomienda encarecidamente usar máquinas virtuales SHIR dentro de la red virtual corporativa para extraer los metadatos </t>
-        </is>
-      </c>
-      <c r="D51" s="21" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/purview/concept-best-practices-security#apply-security-best-practices-for-self-hosted-runtime-vms</t>
-        </is>
-      </c>
+          <t>Implemente máquinas virtuales SHIR en la red virtual si trabaja con datos confidenciales que no deben salir de la red corporativa</t>
+        </is>
+      </c>
+      <c r="D51" s="21" t="n"/>
       <c r="E51" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2920,7 +2976,7 @@
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>e8cb1231-8ca5-4017-b158-e3fb3aa3c2de</t>
+          <t>6898a535-e337-4897-b31b-67d67be5962a</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -2931,18 +2987,18 @@
     <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="21" t="inlineStr">
         <is>
-          <t>Protección de datos</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="B52" s="21" t="inlineStr"/>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Use RBAC de Azure para restringir el acceso de la cuenta de almacenamiento (no administrada por MS) solo a los usuarios previstos.</t>
+          <t>Use la opción de red virtual administrada si tiene necesidades de aislamiento de red</t>
         </is>
       </c>
       <c r="D52" s="21" t="inlineStr">
         <is>
-          <t>Los metadatos se extraen y almacenan en el mapa de datos de Microsoft Purview, si no usa una cuenta de almacenamiento administrado para su cuenta de Purview, están abiertos para que todos puedan acceder a ellos, por lo que debe implementar los RBAC adecuados y restringir el acceso de los datos solo a los usuarios previstos. Aplicable a las cuentas implementadas después del 15 de diciembre de 2023 (o implementadas con la versión de API 2023-05-01-preview en adelante</t>
+          <t>Las redes virtuales administradas son redes virtuales creadas y administradas por Microsoft Fabric para cada área de trabajo de Fabric. Las redes virtuales administradas proporcionan aislamiento de red para las cargas de trabajo de Fabric Spark, lo que significa que los clústeres de proceso se implementan en una red dedicada y ya no forman parte de la red virtual compartida. Solo se admite para la carga de trabajo de Spark en Fabric.</t>
         </is>
       </c>
       <c r="E52" s="21" t="inlineStr">
@@ -2956,13 +3012,21 @@
         </is>
       </c>
       <c r="G52" s="21" t="n"/>
-      <c r="H52" s="15" t="n"/>
-      <c r="I52" s="15" t="n"/>
+      <c r="H52" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/fabric/security/security-managed-vnets-fabric-overview</t>
+        </is>
+      </c>
+      <c r="I52" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>7f3165c3-a87a-405b-9a20-9949bda47778</t>
+          <t>a552d5c1-5e40-4196-9387-e5ced127dd14</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -2973,16 +3037,20 @@
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="21" t="inlineStr">
         <is>
-          <t>Protección de datos</t>
+          <t>Seguridad de la red</t>
         </is>
       </c>
       <c r="B53" s="21" t="inlineStr"/>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>Los datos en reposo se cifran mediante claves administradas de Microsoft</t>
-        </is>
-      </c>
-      <c r="D53" s="21" t="n"/>
+          <t>Uso de IR de red virtual administrada para restringir el acceso a través de la red pública de Internet para Azure Integration Runtime</t>
+        </is>
+      </c>
+      <c r="D53" s="21" t="inlineStr">
+        <is>
+          <t>Al crear un entorno de ejecución de integración de Azure dentro de una red virtual administrada de Data Factory, el entorno de ejecución de integración se aprovisiona con la red virtual administrada. Utiliza puntos de conexión privados para conectarse de forma segura a los almacenes de datos compatibles.</t>
+        </is>
+      </c>
       <c r="E53" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -2999,7 +3067,7 @@
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>f24d1167-85c2-4fa5-9c56-a948008be7d7</t>
+          <t>1193846d-697c-4c39-8ed1-6b2d186f0a12</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3010,16 +3078,20 @@
     <row r="54" ht="16.5" customHeight="1">
       <c r="A54" s="21" t="inlineStr">
         <is>
-          <t>Protección de datos</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="B54" s="21" t="inlineStr"/>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>Los datos en tránsito se cifran mediante TLS 1.3</t>
-        </is>
-      </c>
-      <c r="D54" s="21" t="n"/>
+          <t>Configuración de puntos de conexión privados administrados para acceder a los servicios de Azure</t>
+        </is>
+      </c>
+      <c r="D54" s="21" t="inlineStr">
+        <is>
+          <t>Los puntos de conexión privados administrados son una característica que permite el acceso seguro y privado a los orígenes de datos de las cargas de trabajo de Fabric Spark. No se puede usar el grupo de inicio con PE administrado</t>
+        </is>
+      </c>
       <c r="E54" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -3031,13 +3103,21 @@
         </is>
       </c>
       <c r="G54" s="21" t="n"/>
-      <c r="H54" s="15" t="n"/>
-      <c r="I54" s="15" t="n"/>
+      <c r="H54" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/fabric/security/security-managed-private-endpoints-overview</t>
+        </is>
+      </c>
+      <c r="I54" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J54" s="22" t="n"/>
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>27f7b9e9-1be1-4f38-aff3-9812bd463cbb</t>
+          <t>6f4a0641-addd-4ea8-a477-cdeb3861bc3b</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3048,19 +3128,23 @@
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="21" t="inlineStr">
         <is>
-          <t>Protección de datos</t>
+          <t>Seguridad de la red</t>
         </is>
       </c>
       <c r="B55" s="21" t="inlineStr"/>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>Use siempre Azure Key Vaults para almacenar todas las credenciales si no usa identidades administradas o sin métodos de necesidad de contraseña</t>
-        </is>
-      </c>
-      <c r="D55" s="21" t="n"/>
+          <t>Configuración de puntos de conexión privados administrados para conectarse a recursos mediante Azure IR administrado</t>
+        </is>
+      </c>
+      <c r="D55" s="21" t="inlineStr">
+        <is>
+          <t>Los puntos de conexión privados administrados son puntos de conexión privados creados en la red virtual administrada de Data Factory que establece un vínculo privado a los recursos de Azure. Data Factory administra estos puntos de conexión privados en su nombre.</t>
+        </is>
+      </c>
       <c r="E55" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3069,12 +3153,16 @@
         </is>
       </c>
       <c r="G55" s="21" t="n"/>
-      <c r="H55" s="15" t="n"/>
+      <c r="H55" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/data-factory/managed-virtual-network-private-endpoint#managed-private-endpoints</t>
+        </is>
+      </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>bc8ac199-ebb9-41a4-9d90-dae2cc881370</t>
+          <t>41bddde6-8a47-47cd-bb48-61bc3bc10ae6</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3085,16 +3173,20 @@
     <row r="56" ht="16.5" customHeight="1">
       <c r="A56" s="21" t="inlineStr">
         <is>
-          <t>Protección contra la eliminación accidental</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="B56" s="21" t="inlineStr"/>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>Evitar la eliminación accidental de cuentas de Microsoft Purview mediante la aplicación de bloqueos de recursos</t>
-        </is>
-      </c>
-      <c r="D56" s="21" t="n"/>
+          <t>Configure Private Links para acceder a los recursos de su propia red virtual de Azure, es decir, al tráfico que entra en su entorno de Fabric</t>
+        </is>
+      </c>
+      <c r="D56" s="21" t="inlineStr">
+        <is>
+          <t>Fabric usa una dirección IP privada de la red virtual. El punto de conexión permite a los usuarios de la red comunicarse con Fabric a través de la dirección IP privada mediante enlaces privados.</t>
+        </is>
+      </c>
       <c r="E56" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -3106,12 +3198,21 @@
         </is>
       </c>
       <c r="G56" s="21" t="n"/>
-      <c r="H56" s="15" t="n"/>
+      <c r="H56" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/fabric/security/security-private-links-use</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>6f7c0cba-fe61-4465-add4-57e927139b82</t>
+          <t>c14aea6e-65d8-4d9a-9aec-218e6436b063</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3120,16 +3221,20 @@
       <c r="P56" s="25" t="n"/>
     </row>
     <row r="57" ht="16.5" customHeight="1">
-      <c r="A57" s="21" t="inlineStr"/>
+      <c r="A57" s="21" t="inlineStr">
+        <is>
+          <t>Gestión de redes</t>
+        </is>
+      </c>
       <c r="B57" s="21" t="inlineStr"/>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>Planee una estrategia de emergencia para el inquilino de Microsoft Entra, la suscripción de Azure y las cuentas de Microsoft Purview para evitar el bloqueo de cuentas en todo el inquilino.</t>
+          <t>Configurar el acceso condicional de ID de Microsoft Entra si un usuario intenta acceder a su entorno de Fabric</t>
         </is>
       </c>
       <c r="D57" s="21" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/purview/concept-best-practices-collections#design-recommendations</t>
+          <t>El momento en que un usuario se autentica, el acceso se determina en función de un conjunto de directivas que pueden incluir la dirección IP, la ubicación y los dispositivos administrados.</t>
         </is>
       </c>
       <c r="E57" s="21" t="inlineStr">
@@ -3145,14 +3250,19 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/entra/identity/role-based-access-control/security-emergency-access</t>
+          <t>https://learn.microsoft.com/fabric/security/security-conditional-access</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>1102cac6-eae0-41e6-b842-e52f4722d928</t>
+          <t>6cb45e57-9603-4324-adf8-cc23318da611</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3163,16 +3273,20 @@
     <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="21" t="inlineStr">
         <is>
-          <t>Recomendación de seguridad adicional</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="B58" s="21" t="inlineStr"/>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Integración con Microsoft 365 y Microsoft Defender for Cloud</t>
-        </is>
-      </c>
-      <c r="D58" s="21" t="n"/>
+          <t>Puede usar etiquetas de servicio de Azure para habilitar las conexiones hacia y desde Microsoft Fabric.</t>
+        </is>
+      </c>
+      <c r="D58" s="21" t="inlineStr">
+        <is>
+          <t>En Azure, una etiqueta de servicio es un grupo definido de direcciones IP que se administra automáticamente, como un grupo, para minimizar la complejidad de las actualizaciones o los cambios en las reglas de seguridad de red.</t>
+        </is>
+      </c>
       <c r="E58" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -3184,12 +3298,21 @@
         </is>
       </c>
       <c r="G58" s="21" t="n"/>
-      <c r="H58" s="15" t="n"/>
+      <c r="H58" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/fabric/security/security-service-tags</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>15f51296-5398-4e6d-bd23-7dd142b16c21</t>
+          <t>70265f4b-b46a-4393-af70-317294797b15</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3200,23 +3323,23 @@
     <row r="59" ht="16.5" customHeight="1">
       <c r="A59" s="21" t="inlineStr">
         <is>
-          <t>Gestión de identidades y accesos</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="B59" s="21" t="inlineStr"/>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>Definir el modelo de privilegios mínimos y la menor exposición de cuentas con privilegios</t>
+          <t>Puedes agregar URL de Fabric a tu lista de permitidos</t>
         </is>
       </c>
       <c r="D59" s="21" t="inlineStr">
         <is>
-          <t>Separe las cuentas de administrador de las cuentas de usuario normales.</t>
+          <t>opcional</t>
         </is>
       </c>
       <c r="E59" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3225,12 +3348,21 @@
         </is>
       </c>
       <c r="G59" s="21" t="n"/>
-      <c r="H59" s="15" t="n"/>
+      <c r="H59" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/fabric/security/fabric-allow-list-urls</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>d7999a64-6f43-489a-af42-c78e78c06a73</t>
+          <t>78a219a4-6beb-4544-9502-4922634292bb</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3241,23 +3373,23 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
-          <t>Gestión de identidades y accesos</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="B60" s="21" t="inlineStr"/>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>Configure el inicio de sesión único y el inicio de sesión unificado. Habilite la autenticación multifactor.</t>
+          <t>Puede agregar direcciones URL de Power BI a la lista de permitidos</t>
         </is>
       </c>
       <c r="D60" s="21" t="inlineStr">
         <is>
-          <t>Azure Databricks admite el acceso condicional de identificador de Microsoft Entra, que permite a los administradores controlar dónde y cuándo se permite a los usuarios iniciar sesión en Azure Databricks. Las directivas de acceso condicional pueden restringir el inicio de sesión en la red corporativa o pueden requerir autenticación multifactor (MFA).</t>
+          <t>opcional</t>
         </is>
       </c>
       <c r="E60" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3268,14 +3400,19 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/databricks/security/auth/#single-sign-on</t>
+          <t>https://learn.microsoft.com/fabric/security/power-bi-allow-list-urls</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>a22a4956-e7a8-4dc4-a20e-27c3e29711b1</t>
+          <t>528537a5-4119-4bf8-b8f5-854287d9cdc1</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3286,18 +3423,18 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="21" t="inlineStr">
         <is>
-          <t>Gestión de identidades y accesos</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="B61" s="21" t="inlineStr"/>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Utilice la administración de tokens.</t>
+          <t>Configure y use la puerta de enlace de datos local o la puerta de enlace de datos de red virtual para conectarse a orígenes locales o detrás de una red virtual</t>
         </is>
       </c>
       <c r="D61" s="21" t="inlineStr">
         <is>
-          <t>Los clientes pueden usar la API de administración de tokens o los controles de la interfaz de usuario para habilitar o deshabilitar los tokens de acceso personal (PAT) para la autenticación de la API de REST, limitar los usuarios que pueden usar PAT, establecer la duración máxima de los nuevos tokens y administrar los tokens existentes. Los clientes de alta seguridad suelen aprovisionar una duración máxima del token para los nuevos tokens de un área de trabajo. Esta característica requiere el plan de tarifa Premium.</t>
+          <t>La puerta de enlace de datos le permite conectar Azure y otros servicios de datos a Microsoft Fabric y Power Platform para comunicarse de forma segura con el origen de datos, ejecutar consultas y transmitir los resultados al servicio.</t>
         </is>
       </c>
       <c r="E61" s="21" t="inlineStr">
@@ -3313,14 +3450,14 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/databricks/admin/access-control/tokens</t>
+          <t>https://learn.microsoft.com/data-integration/gateway/service-gateway-install</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>352beee0-79b5-488d-bfc5-972cd4cd21b0</t>
+          <t>56cc071a-e9b1-441a-a889-535e727897e7</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3329,25 +3466,21 @@
       <c r="P61" s="25" t="n"/>
     </row>
     <row r="62" ht="16.5" customHeight="1">
-      <c r="A62" s="21" t="inlineStr">
-        <is>
-          <t>Gestión de identidades y accesos</t>
-        </is>
-      </c>
+      <c r="A62" s="21" t="inlineStr"/>
       <c r="B62" s="21" t="inlineStr"/>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>Separe las cuentas de administrador de las cuentas de usuario normales</t>
+          <t>Configuración de vínculos privados para conectarse a orígenes en la red virtual del cliente y la factoría de datos</t>
         </is>
       </c>
       <c r="D62" s="21" t="inlineStr">
         <is>
-          <t>Si tiene administradores de Databricks que también son usuarios normales de la plataforma Databricks (por ejemplo, hay un ingeniero de datos principal que administra la plataforma y también realiza trabajos de ingeniería de datos), Databricks recomienda crear una cuenta independiente para las tareas administrativas. Es importante tener en cuenta que, como parte del modelo RBAC de Azure, los usuarios a los que se les conceden permisos de colaborador o superior para el grupo de recursos de un área de trabajo de Azure Databricks implementada se convierten automáticamente en administradores cuando inician sesión en esa área de trabajo. Por lo tanto, las mismas consideraciones descritas anteriormente también deben aplicarse a los usuarios de Azure Portal.</t>
+          <t>Con Azure Private Link, puede conectarse a varias implementaciones de plataforma como servicio (PaaS) en Azure a través de un punto de conexión privado. Un punto de conexión privado es una dirección IP privada dentro de una red virtual y una subred específicas</t>
         </is>
       </c>
       <c r="E62" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3356,12 +3489,16 @@
         </is>
       </c>
       <c r="G62" s="21" t="n"/>
-      <c r="H62" s="15" t="n"/>
+      <c r="H62" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/data-factory/data-factory-private-link</t>
+        </is>
+      </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>77036e5e-6b4b-4fd3-b503-547c1447dc56</t>
+          <t>b47a393a-0804-4272-a479-8b1578b219a4</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3372,18 +3509,18 @@
     <row r="63" ht="16.5" customHeight="1">
       <c r="A63" s="21" t="inlineStr">
         <is>
-          <t>Gestión de identidades y accesos</t>
+          <t>Protección de datos</t>
         </is>
       </c>
       <c r="B63" s="21" t="inlineStr"/>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>Sincronización SCIM de usuarios y grupos.</t>
+          <t>Cifrado de datos en reposo mediante claves administradas de Microsoft</t>
         </is>
       </c>
       <c r="D63" s="21" t="inlineStr">
         <is>
-          <t>SCIM (System for Cross-domain Identity Management) permite sincronizar usuarios y grupos de Microsoft Entra ID con Azure Databricks. Hay tres ventajas principales de este enfoque: 1. Al quitar un usuario, el usuario se quita automáticamente de Databricks. 2. Los usuarios también pueden ser deshabilitados temporalmente a través de SCIM. Los clientes han usado esta funcionalidad para escenarios en los que creen que una cuenta puede estar en peligro y necesitan investigar 3. Los grupos se sincronizan automáticamente Consulte la documentación para obtener instrucciones detalladas sobre cómo configurar SCIM para Azure Databricks. Esta característica requiere el plan de tarifa Premium</t>
+          <t>Esta es una configuración predeterminada</t>
         </is>
       </c>
       <c r="E63" s="21" t="inlineStr">
@@ -3397,17 +3534,13 @@
         </is>
       </c>
       <c r="G63" s="21" t="n"/>
-      <c r="H63" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/databricks/admin/users-groups/scim/</t>
-        </is>
-      </c>
+      <c r="H63" s="15" t="n"/>
       <c r="I63" s="15" t="n"/>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>028a71ff-f1ce-415d-b3f0-d5e872d42e36</t>
+          <t>6ceb5443-5135-4922-9442-93bb628637a5</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3418,18 +3551,18 @@
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="21" t="inlineStr">
         <is>
-          <t>Gestión de identidades y accesos</t>
+          <t>Protección de datos</t>
         </is>
       </c>
       <c r="B64" s="21" t="inlineStr"/>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>Limite los derechos de creación de clústeres.</t>
+          <t>Cifrado de datos en tránsito por claves administradas de Microsoft</t>
         </is>
       </c>
       <c r="D64" s="21" t="inlineStr">
         <is>
-          <t>Mediante el uso de políticas de clúster o las ACL de clúster más antiguas, los administradores pueden definir qué usuarios o grupos dentro de la organización pueden crear clústeres. Las ACL de clúster permiten especificar qué usuarios pueden adjuntar un bloc de notas a un clúster determinado. Tenga en cuenta que si un usuario comparte un bloc de notas que ya está conectado a un clúster de modo estándar, el destinatario también podrá ejecutar código en ese clúster. Esto no se aplica a los clústeres que aplican el aislamiento de usuarios: Almacenes SQL, alta simultaneidad con clústeres de ACL de tabla y alta simultaneidad con clústeres de paso a través de credenciales. Los clientes que usan Unity Catalog también pueden habilitar clústeres de un solo usuario para aplicar clústeres de aislamiento.</t>
+          <t>Esta es una configuración predeterminada</t>
         </is>
       </c>
       <c r="E64" s="21" t="inlineStr">
@@ -3449,7 +3582,7 @@
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>11cc57b4-a4b1-4410-b43a-58a9c2289b3d</t>
+          <t>5119b08e-8f58-4543-a7e9-cec166cd072a</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3458,21 +3591,25 @@
       <c r="P64" s="25" t="n"/>
     </row>
     <row r="65" ht="16.5" customHeight="1">
-      <c r="A65" s="21" t="inlineStr"/>
+      <c r="A65" s="21" t="inlineStr">
+        <is>
+          <t>Protección de datos</t>
+        </is>
+      </c>
       <c r="B65" s="21" t="inlineStr"/>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>Restringir a los administradores del espacio de trabajo</t>
+          <t>Cifrado de datos en tránsito por BYOK (claves administradas por el cliente)</t>
         </is>
       </c>
       <c r="D65" s="21" t="inlineStr">
         <is>
-          <t>Los administradores de cuentas pueden configurar una configuración del área de trabajo denominada RestrictWorkspaceAdmins para restringir a los administradores del área de trabajo para que solo cambien el propietario de un trabajo a sí mismos y la configuración de ejecución del trabajo como a una entidad de servicio en la que tengan el rol de usuario de entidad de servicio.</t>
+          <t>Cuando se especifica una clave administrada por el cliente, Data Factory usa tanto la clave del sistema de fábrica como la CMK para cifrar los datos del cliente. Si no se produce ninguno de ellos, se denegaría el acceso a los datos y a la fábrica.</t>
         </is>
       </c>
       <c r="E65" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3483,7 +3620,7 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/databricks/admin/workspace-settings/restrict-workspace-admins</t>
+          <t>https://learn.microsoft.com/azure/data-factory/enable-customer-managed-key</t>
         </is>
       </c>
       <c r="I65" s="15" t="n"/>
@@ -3491,7 +3628,7 @@
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>6b57dfc6-5546-41e1-a3e3-453a3c863964</t>
+          <t>f9b241a9-98a5-435e-9378-97e71ca7da8c</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3502,7 +3639,7 @@
     <row r="66" ht="16.5" customHeight="1">
       <c r="A66" s="21" t="inlineStr">
         <is>
-          <t>Gestión de identidades y accesos</t>
+          <t>Protección de datos</t>
         </is>
       </c>
       <c r="B66" s="21" t="inlineStr"/>
@@ -3511,11 +3648,7 @@
           <t>Almacenamiento de contraseñas y secretos en Azure Key Vault</t>
         </is>
       </c>
-      <c r="D66" s="21" t="inlineStr">
-        <is>
-          <t>Es importante tener en cuenta que, aunque los clientes usen Azure Key Vault para almacenar sus secretos, los controles de acceso deben definirse en Azure Databricks. Esto se debe a que se usa la misma identidad de servicio para recuperar el secreto de todos los usuarios de un área de trabajo de Azure Databricks.</t>
-        </is>
-      </c>
+      <c r="D66" s="21" t="n"/>
       <c r="E66" s="21" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -3527,12 +3660,16 @@
         </is>
       </c>
       <c r="G66" s="21" t="n"/>
-      <c r="H66" s="15" t="n"/>
+      <c r="H66" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/data-factory/store-credentials-in-key-vault, https:/learn.microsoft.com/azure/data-factory/how-to-use-azure-key-vault-secrets-pipeline-activities</t>
+        </is>
+      </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>8b662d6c-15f5-4129-9539-8e6ded237dd1</t>
+          <t>faa62a15-9495-46da-a7dc-3a23267b2258</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3541,17 +3678,25 @@
       <c r="P66" s="25" t="n"/>
     </row>
     <row r="67" ht="16.5" customHeight="1">
-      <c r="A67" s="21" t="inlineStr"/>
+      <c r="A67" s="21" t="inlineStr">
+        <is>
+          <t>Protección de datos</t>
+        </is>
+      </c>
       <c r="B67" s="21" t="inlineStr"/>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>Regenere/gire las teclas si las usa periódicamente</t>
-        </is>
-      </c>
-      <c r="D67" s="21" t="n"/>
+          <t>Uso de secretos de Azure Key Vault en actividades de canalización</t>
+        </is>
+      </c>
+      <c r="D67" s="21" t="inlineStr">
+        <is>
+          <t>Puede almacenar credenciales o valores secretos en una instancia de Azure Key Vault y usarlos durante la ejecución de la canalización para pasarlos a sus actividades.</t>
+        </is>
+      </c>
       <c r="E67" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3560,13 +3705,17 @@
         </is>
       </c>
       <c r="G67" s="21" t="n"/>
-      <c r="H67" s="15" t="n"/>
+      <c r="H67" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/data-factory/how-to-use-azure-key-vault-secrets-pipeline-activities</t>
+        </is>
+      </c>
       <c r="I67" s="15" t="n"/>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>42b16c21-d799-49a6-96f4-389a8f42c78e</t>
+          <t>6f4a1652-bddd-4ea8-a487-cdec4861bc3b</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3577,18 +3726,18 @@
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="21" t="inlineStr">
         <is>
-          <t>Gestión de identidades y accesos</t>
+          <t>Protección de datos</t>
         </is>
       </c>
       <c r="B68" s="21" t="inlineStr"/>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Utilice clústeres que admitan el aislamiento de usuarios.</t>
+          <t>Cifrado de credenciales para el entorno local mediante almacenes de datos SHIR en Azure Data Factory</t>
         </is>
       </c>
       <c r="D68" s="21" t="inlineStr">
         <is>
-          <t>Los clústeres con aislamiento de usuario incluyen la aplicación de modo que cada usuario se ejecute como una cuenta de usuario sin privilegios diferente en el host del clúster. Los lenguajes también se limitan a aquellos que se pueden implementar de forma aislada (SQL y Python), y las API de Spark deben estar en una lista de permitidos de aquellos que creemos que son seguros para el aislamiento.</t>
+          <t>Puede cifrar y almacenar credenciales para cualquiera de los almacenes de datos locales (servicios vinculados con información confidencial) en un equipo con tiempo de ejecución de integración autohospedado.</t>
         </is>
       </c>
       <c r="E68" s="21" t="inlineStr">
@@ -3602,13 +3751,17 @@
         </is>
       </c>
       <c r="G68" s="21" t="n"/>
-      <c r="H68" s="15" t="n"/>
+      <c r="H68" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/data-factory/encrypt-credentials-self-hosted-integration-runtime</t>
+        </is>
+      </c>
       <c r="I68" s="15" t="n"/>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>78c06a73-a22a-4495-9e7a-8dc4a20e27c3</t>
+          <t>c14aeb7e-66e8-4d9a-9bec-218e6436b173</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -3625,14 +3778,10 @@
       <c r="B69" s="21" t="inlineStr"/>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>Use entidades de servicio para ejecutar trabajos de producción. Utilice el control de acceso adecuado para los controles de seguridad de nivel de área de trabajo (ACL), nivel de cuenta (RBAC) y nivel de datos (catálogo de Unity)</t>
-        </is>
-      </c>
-      <c r="D69" s="21" t="inlineStr">
-        <is>
-          <t>Va en contra de los procedimientos recomendados de seguridad vincular las cargas de trabajo de producción a cuentas de usuario individuales, por lo que se recomienda configurar entidades de servicio dentro de Databricks. Los principios de servicio separan las acciones del administrador y del usuario de la carga de trabajo y evitan que las cargas de trabajo se vean afectadas si un usuario abandona una organización. Con Databricks, puede configurar trabajos para que se ejecuten como entidades de servicio y generar tokens de acceso personal para entidades de servicio.</t>
-        </is>
-      </c>
+          <t>Definir roles y responsabilidades para administrar Microsoft Purview en el plano de control y el plano de datos</t>
+        </is>
+      </c>
+      <c r="D69" s="21" t="n"/>
       <c r="E69" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -3644,17 +3793,13 @@
         </is>
       </c>
       <c r="G69" s="21" t="n"/>
-      <c r="H69" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/databricks/security/auth/access-control/</t>
-        </is>
-      </c>
+      <c r="H69" s="15" t="n"/>
       <c r="I69" s="15" t="n"/>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>e29711b1-352b-4eee-879b-588defc5972c</t>
+          <t>6db55f57-9603-4334-adf9-cc23418db612</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -3665,23 +3810,23 @@
     <row r="70" ht="16.5" customHeight="1">
       <c r="A70" s="21" t="inlineStr">
         <is>
-          <t>Protección de datos</t>
+          <t>Gestión de identidades y accesos</t>
         </is>
       </c>
       <c r="B70" s="21" t="inlineStr"/>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>Evite almacenar datos de producción en DBFS.</t>
+          <t>Definición de roles y tareas necesarios para implementar y administrar Microsoft Purview dentro de una suscripción de Azure (plano de control)</t>
         </is>
       </c>
       <c r="D70" s="21" t="inlineStr">
         <is>
-          <t>De forma predeterminada, DBFS es un sistema de archivos al que pueden acceder todos los usuarios del espacio de trabajo determinado y al que se puede acceder a través de la API. Esto no es necesariamente un problema importante de exfiltración de datos, ya que puede limitar el acceso al acceso a los datos a través de la API de DBFS o la CLI de Databricks mediante listas de acceso IP o acceso a redes privadas. Sin embargo, a medida que crezca el uso de Azure Databricks y más usuarios se unan a un área de trabajo, esos usuarios tendrían acceso a los datos almacenados en DBFS, lo que crearía la posibilidad de que se compartiera información no deseada. Databricks recomienda a nuestros clientes que no almacenen datos de producción en DBFS.</t>
+          <t>Use RBAC de Azure para esto</t>
         </is>
       </c>
       <c r="E70" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3690,13 +3835,17 @@
         </is>
       </c>
       <c r="G70" s="21" t="n"/>
-      <c r="H70" s="15" t="n"/>
+      <c r="H70" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/best-practices</t>
+        </is>
+      </c>
       <c r="I70" s="15" t="n"/>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>d4cd21b0-7703-46e5-b6b4-bfd3d503547c</t>
+          <t>8126504b-b47a-4393-a080-427294798b15</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -3707,18 +3856,18 @@
     <row r="71" ht="16.5" customHeight="1">
       <c r="A71" s="21" t="inlineStr">
         <is>
-          <t>Protección de datos</t>
+          <t>Gestión de identidades y accesos</t>
         </is>
       </c>
       <c r="B71" s="21" t="inlineStr"/>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>Cifre el almacenamiento y restrinja el acceso.</t>
+          <t>Defina los roles y las tareas necesarias para realizar la administración y la gobernanza de datos mediante Microsoft Purview. (Plano de datos para el mapa de datos y el catálogo de datos).</t>
         </is>
       </c>
       <c r="D71" s="21" t="inlineStr">
         <is>
-          <t>En el caso de las cuentas de almacenamiento que administra, es su responsabilidad asegurarse de que las cuentas de almacenamiento estén protegidas según sus requisitos. Algunos ejemplos pueden ser: Cifrado con la clave administrada por el cliente, Restricción del acceso a redes de confianza con un firewall de almacenamiento, No se permite el acceso público anónimo</t>
+          <t>Use los roles de Microsoft Purview para esto.</t>
         </is>
       </c>
       <c r="E71" s="21" t="inlineStr">
@@ -3734,7 +3883,7 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/databricks/security/keys/customer-managed-keys</t>
+          <t>https://learn.microsoft.com/purview/classic-data-governance-permissions#roles,  https://learn.microsoft.com/azure/role-based-access-control/best-practices</t>
         </is>
       </c>
       <c r="I71" s="15" t="n"/>
@@ -3742,7 +3891,7 @@
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>1447dc56-028a-471f-bf1c-e15dd3f0d5e8</t>
+          <t>78b219a4-6ceb-4544-9513-5922744293bb</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -3753,20 +3902,16 @@
     <row r="72" ht="16.5" customHeight="1">
       <c r="A72" s="21" t="inlineStr">
         <is>
-          <t>Protección de datos</t>
+          <t>Gestión de identidades y accesos</t>
         </is>
       </c>
       <c r="B72" s="21" t="inlineStr"/>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Adición de una clave administrada por el cliente para los servicios administrados y el almacenamiento del área de trabajo</t>
-        </is>
-      </c>
-      <c r="D72" s="21" t="inlineStr">
-        <is>
-          <t>Agregue una clave administrada por el cliente para los datos seleccionados almacenados en el plano de control de Azure Databricks, como cuadernos, secretos, consultas SQL de Databricks y el historial de consultas SQL de Databricks, así como para la cuenta de almacenamiento raíz usada para DBFS. Azure Databricks requiere acceso a esta clave para las operaciones en curso. Puede revocar el acceso a la clave para impedir que Azure Databricks acceda a los datos cifrados en el plano de control (o en nuestras copias de seguridad). Esto es como una opción nuclear donde el espacio de trabajo deja de funcionar, pero proporciona un control de emergencia para situaciones extremas. Esta característica requiere el plan de tarifa Premium.</t>
-        </is>
-      </c>
+          <t>Asigne roles a grupos de Microsoft Entra en lugar de asignar roles a usuarios individuales.</t>
+        </is>
+      </c>
+      <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -3778,17 +3923,13 @@
         </is>
       </c>
       <c r="G72" s="21" t="n"/>
-      <c r="H72" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/databricks/security/keys/customer-managed-keys</t>
-        </is>
-      </c>
+      <c r="H72" s="15" t="n"/>
       <c r="I72" s="15" t="n"/>
       <c r="J72" s="22" t="n"/>
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>72d42e36-11cc-457b-9a4b-1410e43a58a9</t>
+          <t>628637a5-5119-4b08-b8f5-854387e9cec1</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -3799,20 +3940,16 @@
     <row r="73" ht="16.5" customHeight="1">
       <c r="A73" s="21" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Gestión de identidades y accesos</t>
         </is>
       </c>
       <c r="B73" s="21" t="inlineStr"/>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Habilite las listas de acceso IP para restringir el acceso a determinadas direcciones IP.</t>
-        </is>
-      </c>
-      <c r="D73" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Configure listas de acceso IP que restrinjan las direcciones IP que se pueden autenticar en Databricks en el nivel de la consola de cuenta y el área de trabajo comprobando si el usuario o el cliente de API procede de un intervalo de direcciones IP correcto conocido, como una VPN o una red de oficina. Las sesiones de usuario establecidas no funcionan si el usuario se mueve a una dirección IP incorrecta, como cuando se desconecta de la VPN. </t>
-        </is>
-      </c>
+          <t>Use Azure Active Directory Entitlement Management para asignar el acceso de los usuarios a los grupos de Microsoft Entra mediante paquetes de acceso.</t>
+        </is>
+      </c>
+      <c r="D73" s="21" t="n"/>
       <c r="E73" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -3826,7 +3963,7 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/databricks/security/network/front-end/ip-access-list</t>
+          <t>https://learn.microsoft.com/azure/active-directory/governance/entitlement-management-overview</t>
         </is>
       </c>
       <c r="I73" s="15" t="n"/>
@@ -3834,7 +3971,7 @@
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>277de183-b1ac-4252-a9a9-b64608489a8f</t>
+          <t>66cd072a-f9b2-441a-a98a-535e737897e7</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -3845,23 +3982,19 @@
     <row r="74" ht="16.5" customHeight="1">
       <c r="A74" s="21" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Gestión de identidades y accesos</t>
         </is>
       </c>
       <c r="B74" s="21" t="inlineStr"/>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Configure y use Azure Private Link para acceder a los recursos de Azure.</t>
-        </is>
-      </c>
-      <c r="D74" s="21" t="inlineStr">
-        <is>
-          <t>Azure Private Link proporciona una ruta de red privada de un entorno de Azure a otro. Private Link se puede configurar tanto entre los usuarios de Azure Databricks y el plano de control, como entre el plano de control y el plano de datos. Entre los usuarios de Databricks y el plano de control, Private Link proporciona controles seguros que limitan el origen de las solicitudes entrantes. Si una empresa ya enruta el tráfico a través de un entorno de Azure, puede usar Private Link para que la comunicación entre los usuarios y el plano de control de Azure Databricks no atraviese direcciones IP públicas. Esta característica requiere el plan de tarifa Premium. Use Azure Private Link para conectarse desde Azure Databricks a los recursos de Azure. Private Link no solo garantiza</t>
-        </is>
-      </c>
+          <t>Aplique la autenticación multifactor para los usuarios de Microsoft Purview, especialmente para los usuarios con roles con privilegios, como administradores de colecciones, administradores de orígenes de datos o conservadores de datos.</t>
+        </is>
+      </c>
+      <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3870,17 +4003,13 @@
         </is>
       </c>
       <c r="G74" s="21" t="n"/>
-      <c r="H74" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/databricks/security/network/classic/private-link</t>
-        </is>
-      </c>
+      <c r="H74" s="15" t="n"/>
       <c r="I74" s="15" t="n"/>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>82db8eb9-d1ba-473b-86a5-a57eba8dd4b3</t>
+          <t>1ca7da8c-faa6-42a1-9949-56da97dc3a23</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -3889,561 +4018,1386 @@
       <c r="P74" s="25" t="n"/>
     </row>
     <row r="75" ht="16.5" customHeight="1">
-      <c r="A75" s="21" t="n"/>
-      <c r="B75" s="21" t="n"/>
-      <c r="C75" s="21" t="n"/>
+      <c r="A75" s="21" t="inlineStr">
+        <is>
+          <t>Gestión de identidades y accesos</t>
+        </is>
+      </c>
+      <c r="B75" s="21" t="inlineStr"/>
+      <c r="C75" s="21" t="inlineStr">
+        <is>
+          <t>Use el identificador de Microsoft Entra para proporcionar autenticación y autorización a todos los usuarios, grupos de seguridad registrados en Entra, entidad de servicio e identidades administradas dentro de colecciones en Microsoft Purview</t>
+        </is>
+      </c>
       <c r="D75" s="21" t="n"/>
-      <c r="E75" s="21" t="n"/>
+      <c r="E75" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="n"/>
       <c r="I75" s="15" t="n"/>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
-      <c r="L75" s="25" t="n"/>
+      <c r="L75" s="25" t="inlineStr">
+        <is>
+          <t>267b2258-6f4a-4165-8bdd-dea8a487cdec</t>
+        </is>
+      </c>
       <c r="M75" s="25" t="n"/>
       <c r="N75" s="25" t="n"/>
       <c r="O75" s="25" t="n"/>
       <c r="P75" s="25" t="n"/>
     </row>
     <row r="76" ht="16.5" customHeight="1">
-      <c r="A76" s="21" t="n"/>
-      <c r="B76" s="21" t="n"/>
-      <c r="C76" s="21" t="n"/>
+      <c r="A76" s="21" t="inlineStr">
+        <is>
+          <t>Gestión de identidades y accesos</t>
+        </is>
+      </c>
+      <c r="B76" s="21" t="inlineStr"/>
+      <c r="C76" s="21" t="inlineStr">
+        <is>
+          <t>Definir el modelo de privilegios mínimos y la menor exposición de cuentas con privilegios</t>
+        </is>
+      </c>
       <c r="D76" s="21" t="n"/>
-      <c r="E76" s="21" t="n"/>
+      <c r="E76" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="n"/>
       <c r="I76" s="15" t="n"/>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
-      <c r="L76" s="25" t="n"/>
+      <c r="L76" s="25" t="inlineStr">
+        <is>
+          <t>4861bc3b-c14a-4eb7-b66e-8d9a3bec218e</t>
+        </is>
+      </c>
       <c r="M76" s="25" t="n"/>
       <c r="N76" s="25" t="n"/>
       <c r="O76" s="25" t="n"/>
       <c r="P76" s="25" t="n"/>
     </row>
     <row r="77" ht="16.5" customHeight="1">
-      <c r="A77" s="21" t="n"/>
-      <c r="B77" s="21" t="n"/>
-      <c r="C77" s="21" t="n"/>
+      <c r="A77" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad de la red</t>
+        </is>
+      </c>
+      <c r="B77" s="21" t="inlineStr"/>
+      <c r="C77" s="21" t="inlineStr">
+        <is>
+          <t>Habilite el aislamiento de red de extremo a extremo mediante el servicio Private Link. (Mapa de datos de Microsoft Purview)</t>
+        </is>
+      </c>
       <c r="D77" s="21" t="n"/>
-      <c r="E77" s="21" t="n"/>
+      <c r="E77" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G77" s="21" t="n"/>
-      <c r="H77" s="15" t="n"/>
+      <c r="H77" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/purview/catalog-private-link-end-to-end</t>
+        </is>
+      </c>
       <c r="I77" s="15" t="n"/>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
-      <c r="L77" s="25" t="n"/>
+      <c r="L77" s="25" t="inlineStr">
+        <is>
+          <t>6436b173-6db5-45f5-9960-3334bdf9cc23</t>
+        </is>
+      </c>
       <c r="M77" s="25" t="n"/>
       <c r="N77" s="25" t="n"/>
       <c r="O77" s="25" t="n"/>
       <c r="P77" s="25" t="n"/>
     </row>
     <row r="78" ht="16.5" customHeight="1">
-      <c r="A78" s="21" t="n"/>
-      <c r="B78" s="21" t="n"/>
-      <c r="C78" s="21" t="n"/>
+      <c r="A78" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad de la red</t>
+        </is>
+      </c>
+      <c r="B78" s="21" t="inlineStr"/>
+      <c r="C78" s="21" t="inlineStr">
+        <is>
+          <t>Use el firewall de Microsoft Purview para deshabilitar el acceso público. (Mapa de datos de Microsoft Purview)</t>
+        </is>
+      </c>
       <c r="D78" s="21" t="n"/>
-      <c r="E78" s="21" t="n"/>
+      <c r="E78" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G78" s="21" t="n"/>
-      <c r="H78" s="15" t="n"/>
+      <c r="H78" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/purview/catalog-private-link-end-to-end#firewalls-to-restrict-public-access</t>
+        </is>
+      </c>
       <c r="I78" s="15" t="n"/>
       <c r="J78" s="22" t="n"/>
       <c r="K78" s="22" t="n"/>
-      <c r="L78" s="25" t="n"/>
+      <c r="L78" s="25" t="inlineStr">
+        <is>
+          <t>418db612-8126-4504-ab47-a393a0804272</t>
+        </is>
+      </c>
       <c r="M78" s="25" t="n"/>
       <c r="N78" s="25" t="n"/>
       <c r="O78" s="25" t="n"/>
       <c r="P78" s="25" t="n"/>
     </row>
     <row r="79" ht="16.5" customHeight="1">
-      <c r="A79" s="21" t="n"/>
-      <c r="B79" s="21" t="n"/>
-      <c r="C79" s="21" t="n"/>
+      <c r="A79" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad de la red</t>
+        </is>
+      </c>
+      <c r="B79" s="21" t="inlineStr"/>
+      <c r="C79" s="21" t="inlineStr">
+        <is>
+          <t>Implemente reglas de grupo de seguridad de red (NSG) para subredes en las que se implementan puntos de conexión privados de orígenes de datos de Azure, puntos de conexión privados de Microsoft Purview y máquinas virtuales en tiempo de ejecución autohospedadas. (Mapa de datos de Microsoft Purview)</t>
+        </is>
+      </c>
       <c r="D79" s="21" t="n"/>
-      <c r="E79" s="21" t="n"/>
+      <c r="E79" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G79" s="21" t="n"/>
-      <c r="H79" s="15" t="n"/>
+      <c r="H79" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/purview/concept-best-practices-security#use-network-security-groups</t>
+        </is>
+      </c>
       <c r="I79" s="15" t="n"/>
       <c r="J79" s="22" t="n"/>
       <c r="K79" s="22" t="n"/>
-      <c r="L79" s="25" t="n"/>
+      <c r="L79" s="25" t="inlineStr">
+        <is>
+          <t>94798b15-78b2-419a-96ce-b54435135922</t>
+        </is>
+      </c>
       <c r="M79" s="25" t="n"/>
       <c r="N79" s="25" t="n"/>
       <c r="O79" s="25" t="n"/>
       <c r="P79" s="25" t="n"/>
     </row>
     <row r="80" ht="16.5" customHeight="1">
-      <c r="A80" s="21" t="n"/>
-      <c r="B80" s="21" t="n"/>
-      <c r="C80" s="21" t="n"/>
+      <c r="A80" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad de la red</t>
+        </is>
+      </c>
+      <c r="B80" s="21" t="inlineStr"/>
+      <c r="C80" s="21" t="inlineStr">
+        <is>
+          <t>Implemente Microsoft Purview con puntos de conexión privados administrados por una aplicación virtual de red, como Azure Firewall, para la inspección y el filtrado de red. (Mapa de datos de Microsoft Purview)</t>
+        </is>
+      </c>
       <c r="D80" s="21" t="n"/>
-      <c r="E80" s="21" t="n"/>
+      <c r="E80" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G80" s="21" t="n"/>
-      <c r="H80" s="15" t="n"/>
+      <c r="H80" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/firewall/overview</t>
+        </is>
+      </c>
       <c r="I80" s="15" t="n"/>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
-      <c r="L80" s="25" t="n"/>
+      <c r="L80" s="25" t="inlineStr">
+        <is>
+          <t>744293bb-6286-437a-9511-9b08e8f58543</t>
+        </is>
+      </c>
       <c r="M80" s="25" t="n"/>
       <c r="N80" s="25" t="n"/>
       <c r="O80" s="25" t="n"/>
       <c r="P80" s="25" t="n"/>
     </row>
     <row r="81" ht="16.5" customHeight="1">
-      <c r="A81" s="21" t="n"/>
-      <c r="B81" s="21" t="n"/>
-      <c r="C81" s="21" t="n"/>
-      <c r="D81" s="21" t="n"/>
-      <c r="E81" s="21" t="n"/>
+      <c r="A81" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad de la red</t>
+        </is>
+      </c>
+      <c r="B81" s="21" t="inlineStr"/>
+      <c r="C81" s="21" t="inlineStr">
+        <is>
+          <t>Implemente puntos de conexión privados para cuentas de Microsoft Purview para agregar otra capa de seguridad, de modo que solo las llamadas de cliente que se originan desde la red virtual puedan acceder a la cuenta de Microsoft Purview</t>
+        </is>
+      </c>
+      <c r="D81" s="21" t="inlineStr">
+        <is>
+          <t>Este punto de conexión privado también es un requisito previo para el punto de conexión privado del portal. El punto de conexión privado del portal de Microsoft Purview es necesario para habilitar la conectividad con el portal de gobernanza de Microsoft Purview mediante una red privada. Microsoft Purview puede examinar orígenes de datos en Azure o en un entorno local mediante puntos de conexión privados de ingesta. Limitaciones en el uso de puntos de conexión privados https://learn.microsoft.com/purview/catalog-private-link-troubleshoot</t>
+        </is>
+      </c>
+      <c r="E81" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G81" s="21" t="n"/>
-      <c r="H81" s="15" t="n"/>
+      <c r="H81" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/purview/concept-best-practices-network</t>
+        </is>
+      </c>
       <c r="I81" s="15" t="n"/>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
-      <c r="L81" s="25" t="n"/>
+      <c r="L81" s="25" t="inlineStr">
+        <is>
+          <t>87e9cec1-66cd-4072-af9b-241a998a535e</t>
+        </is>
+      </c>
       <c r="M81" s="25" t="n"/>
       <c r="N81" s="25" t="n"/>
       <c r="O81" s="25" t="n"/>
       <c r="P81" s="25" t="n"/>
     </row>
     <row r="82" ht="16.5" customHeight="1">
-      <c r="A82" s="21" t="n"/>
-      <c r="B82" s="21" t="n"/>
-      <c r="C82" s="21" t="n"/>
-      <c r="D82" s="21" t="n"/>
-      <c r="E82" s="21" t="n"/>
+      <c r="A82" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad de la red</t>
+        </is>
+      </c>
+      <c r="B82" s="21" t="inlineStr"/>
+      <c r="C82" s="21" t="inlineStr">
+        <is>
+          <t>Bloquear el acceso público mediante el firewall de Microsoft Purview</t>
+        </is>
+      </c>
+      <c r="D82" s="21" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/purview/catalog-private-link-end-to-end#firewalls-to-restrict-public-access. Limitación a revisar: https://learn.microsoft.com/purview/catalog-private-link-troubleshoot</t>
+        </is>
+      </c>
+      <c r="E82" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="n"/>
       <c r="I82" s="15" t="n"/>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
-      <c r="L82" s="25" t="n"/>
+      <c r="L82" s="25" t="inlineStr">
+        <is>
+          <t>b7bcdb3b-51eb-42ec-84ed-a6e59d8d9a2e</t>
+        </is>
+      </c>
       <c r="M82" s="25" t="n"/>
       <c r="N82" s="25" t="n"/>
       <c r="O82" s="25" t="n"/>
       <c r="P82" s="25" t="n"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="21" t="n"/>
-      <c r="B83" s="21" t="n"/>
-      <c r="C83" s="21" t="n"/>
+      <c r="A83" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad de la red</t>
+        </is>
+      </c>
+      <c r="B83" s="21" t="inlineStr"/>
+      <c r="C83" s="21" t="inlineStr">
+        <is>
+          <t>Uso de grupos de seguridad de red para filtrar el tráfico de red hacia y desde los recursos de Azure en una red virtual de Azure</t>
+        </is>
+      </c>
       <c r="D83" s="21" t="n"/>
-      <c r="E83" s="21" t="n"/>
+      <c r="E83" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G83" s="21" t="n"/>
-      <c r="H83" s="15" t="n"/>
+      <c r="H83" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/private-link/disable-private-endpoint-network-policy, https:/learn.microsoft.com/purview/concept-best-practices-security#use-network-security-groups</t>
+        </is>
+      </c>
       <c r="I83" s="15" t="n"/>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
-      <c r="L83" s="25" t="n"/>
+      <c r="L83" s="25" t="inlineStr">
+        <is>
+          <t>db217e67-6abf-4669-aa48-e5a96f2223ec</t>
+        </is>
+      </c>
       <c r="M83" s="25" t="n"/>
       <c r="N83" s="25" t="n"/>
       <c r="O83" s="25" t="n"/>
       <c r="P83" s="25" t="n"/>
     </row>
     <row r="84" ht="16.5" customHeight="1">
-      <c r="A84" s="21" t="n"/>
-      <c r="B84" s="21" t="n"/>
-      <c r="C84" s="21" t="n"/>
-      <c r="D84" s="21" t="n"/>
-      <c r="E84" s="21" t="n"/>
+      <c r="A84" s="21" t="inlineStr">
+        <is>
+          <t>Protección de datos</t>
+        </is>
+      </c>
+      <c r="B84" s="21" t="inlineStr"/>
+      <c r="C84" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Si tiene datos confidenciales que no pueden salir del límite de la red virtual local, se recomienda encarecidamente usar máquinas virtuales SHIR dentro de la red virtual corporativa para extraer los metadatos </t>
+        </is>
+      </c>
+      <c r="D84" s="21" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/purview/concept-best-practices-security#apply-security-best-practices-for-self-hosted-runtime-vms</t>
+        </is>
+      </c>
+      <c r="E84" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="n"/>
       <c r="I84" s="15" t="n"/>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
-      <c r="L84" s="25" t="n"/>
+      <c r="L84" s="25" t="inlineStr">
+        <is>
+          <t>e8cb1231-8ca5-4017-b158-e3fb3aa3c2de</t>
+        </is>
+      </c>
       <c r="M84" s="25" t="n"/>
       <c r="N84" s="25" t="n"/>
       <c r="O84" s="25" t="n"/>
       <c r="P84" s="25" t="n"/>
     </row>
     <row r="85" ht="16.5" customHeight="1">
-      <c r="A85" s="21" t="n"/>
-      <c r="B85" s="21" t="n"/>
-      <c r="C85" s="21" t="n"/>
-      <c r="D85" s="21" t="n"/>
-      <c r="E85" s="21" t="n"/>
+      <c r="A85" s="21" t="inlineStr">
+        <is>
+          <t>Protección de datos</t>
+        </is>
+      </c>
+      <c r="B85" s="21" t="inlineStr"/>
+      <c r="C85" s="21" t="inlineStr">
+        <is>
+          <t>Use RBAC de Azure para restringir el acceso de la cuenta de almacenamiento (no administrada por MS) solo a los usuarios previstos.</t>
+        </is>
+      </c>
+      <c r="D85" s="21" t="inlineStr">
+        <is>
+          <t>Los metadatos se extraen y almacenan en el mapa de datos de Microsoft Purview, si no usa una cuenta de almacenamiento administrado para su cuenta de Purview, están abiertos para que todos puedan acceder a ellos, por lo que debe implementar los RBAC adecuados y restringir el acceso de los datos solo a los usuarios previstos. Aplicable a las cuentas implementadas después del 15 de diciembre de 2023 (o implementadas con la versión de API 2023-05-01-preview en adelante</t>
+        </is>
+      </c>
+      <c r="E85" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="n"/>
       <c r="I85" s="15" t="n"/>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
-      <c r="L85" s="25" t="n"/>
+      <c r="L85" s="25" t="inlineStr">
+        <is>
+          <t>7f3165c3-a87a-405b-9a20-9949bda47778</t>
+        </is>
+      </c>
       <c r="M85" s="25" t="n"/>
       <c r="N85" s="25" t="n"/>
       <c r="O85" s="25" t="n"/>
       <c r="P85" s="25" t="n"/>
     </row>
     <row r="86" ht="16.5" customHeight="1">
-      <c r="A86" s="21" t="n"/>
-      <c r="B86" s="21" t="n"/>
-      <c r="C86" s="21" t="n"/>
+      <c r="A86" s="21" t="inlineStr">
+        <is>
+          <t>Protección de datos</t>
+        </is>
+      </c>
+      <c r="B86" s="21" t="inlineStr"/>
+      <c r="C86" s="21" t="inlineStr">
+        <is>
+          <t>Los datos en reposo se cifran mediante claves administradas de Microsoft</t>
+        </is>
+      </c>
       <c r="D86" s="21" t="n"/>
-      <c r="E86" s="21" t="n"/>
+      <c r="E86" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="n"/>
       <c r="I86" s="15" t="n"/>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
-      <c r="L86" s="25" t="n"/>
+      <c r="L86" s="25" t="inlineStr">
+        <is>
+          <t>f24d1167-85c2-4fa5-9c56-a948008be7d7</t>
+        </is>
+      </c>
       <c r="M86" s="25" t="n"/>
       <c r="N86" s="25" t="n"/>
       <c r="O86" s="25" t="n"/>
       <c r="P86" s="25" t="n"/>
     </row>
     <row r="87" ht="16.5" customHeight="1">
-      <c r="A87" s="21" t="n"/>
-      <c r="B87" s="21" t="n"/>
-      <c r="C87" s="21" t="n"/>
+      <c r="A87" s="21" t="inlineStr">
+        <is>
+          <t>Protección de datos</t>
+        </is>
+      </c>
+      <c r="B87" s="21" t="inlineStr"/>
+      <c r="C87" s="21" t="inlineStr">
+        <is>
+          <t>Los datos en tránsito se cifran mediante TLS 1.3</t>
+        </is>
+      </c>
       <c r="D87" s="21" t="n"/>
-      <c r="E87" s="21" t="n"/>
+      <c r="E87" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="n"/>
       <c r="I87" s="15" t="n"/>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
-      <c r="L87" s="25" t="n"/>
+      <c r="L87" s="25" t="inlineStr">
+        <is>
+          <t>27f7b9e9-1be1-4f38-aff3-9812bd463cbb</t>
+        </is>
+      </c>
       <c r="M87" s="25" t="n"/>
       <c r="N87" s="25" t="n"/>
       <c r="O87" s="25" t="n"/>
       <c r="P87" s="25" t="n"/>
     </row>
     <row r="88" ht="16.5" customHeight="1">
-      <c r="A88" s="21" t="n"/>
-      <c r="B88" s="21" t="n"/>
-      <c r="C88" s="21" t="n"/>
+      <c r="A88" s="21" t="inlineStr">
+        <is>
+          <t>Protección de datos</t>
+        </is>
+      </c>
+      <c r="B88" s="21" t="inlineStr"/>
+      <c r="C88" s="21" t="inlineStr">
+        <is>
+          <t>Use siempre Azure Key Vaults para almacenar todas las credenciales si no usa identidades administradas o sin métodos de necesidad de contraseña</t>
+        </is>
+      </c>
       <c r="D88" s="21" t="n"/>
-      <c r="E88" s="21" t="n"/>
+      <c r="E88" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="n"/>
       <c r="I88" s="15" t="n"/>
       <c r="J88" s="22" t="n"/>
       <c r="K88" s="22" t="n"/>
-      <c r="L88" s="25" t="n"/>
+      <c r="L88" s="25" t="inlineStr">
+        <is>
+          <t>bc8ac199-ebb9-41a4-9d90-dae2cc881370</t>
+        </is>
+      </c>
       <c r="M88" s="25" t="n"/>
       <c r="N88" s="25" t="n"/>
       <c r="O88" s="25" t="n"/>
       <c r="P88" s="25" t="n"/>
     </row>
     <row r="89" ht="16.5" customHeight="1">
-      <c r="A89" s="21" t="n"/>
-      <c r="B89" s="21" t="n"/>
-      <c r="C89" s="21" t="n"/>
+      <c r="A89" s="21" t="inlineStr">
+        <is>
+          <t>Protección contra la eliminación accidental</t>
+        </is>
+      </c>
+      <c r="B89" s="21" t="inlineStr"/>
+      <c r="C89" s="21" t="inlineStr">
+        <is>
+          <t>Evitar la eliminación accidental de cuentas de Microsoft Purview mediante la aplicación de bloqueos de recursos</t>
+        </is>
+      </c>
       <c r="D89" s="21" t="n"/>
-      <c r="E89" s="21" t="n"/>
+      <c r="E89" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="n"/>
       <c r="I89" s="15" t="n"/>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
-      <c r="L89" s="25" t="n"/>
+      <c r="L89" s="25" t="inlineStr">
+        <is>
+          <t>6f7c0cba-fe61-4465-add4-57e927139b82</t>
+        </is>
+      </c>
       <c r="M89" s="25" t="n"/>
       <c r="N89" s="25" t="n"/>
       <c r="O89" s="25" t="n"/>
       <c r="P89" s="25" t="n"/>
     </row>
     <row r="90" ht="16.5" customHeight="1">
-      <c r="A90" s="21" t="n"/>
-      <c r="B90" s="21" t="n"/>
-      <c r="C90" s="21" t="n"/>
-      <c r="D90" s="21" t="n"/>
-      <c r="E90" s="21" t="n"/>
+      <c r="A90" s="21" t="inlineStr"/>
+      <c r="B90" s="21" t="inlineStr"/>
+      <c r="C90" s="21" t="inlineStr">
+        <is>
+          <t>Planee una estrategia de emergencia para el inquilino de Microsoft Entra, la suscripción de Azure y las cuentas de Microsoft Purview para evitar el bloqueo de cuentas en todo el inquilino.</t>
+        </is>
+      </c>
+      <c r="D90" s="21" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/purview/concept-best-practices-collections#design-recommendations</t>
+        </is>
+      </c>
+      <c r="E90" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G90" s="21" t="n"/>
-      <c r="H90" s="15" t="n"/>
+      <c r="H90" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/entra/identity/role-based-access-control/security-emergency-access</t>
+        </is>
+      </c>
       <c r="I90" s="15" t="n"/>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
-      <c r="L90" s="25" t="n"/>
+      <c r="L90" s="25" t="inlineStr">
+        <is>
+          <t>1102cac6-eae0-41e6-b842-e52f4722d928</t>
+        </is>
+      </c>
       <c r="M90" s="25" t="n"/>
       <c r="N90" s="25" t="n"/>
       <c r="O90" s="25" t="n"/>
       <c r="P90" s="25" t="n"/>
     </row>
     <row r="91" ht="16.5" customHeight="1">
-      <c r="A91" s="21" t="n"/>
-      <c r="B91" s="21" t="n"/>
-      <c r="C91" s="21" t="n"/>
+      <c r="A91" s="21" t="inlineStr">
+        <is>
+          <t>Recomendación de seguridad adicional</t>
+        </is>
+      </c>
+      <c r="B91" s="21" t="inlineStr"/>
+      <c r="C91" s="21" t="inlineStr">
+        <is>
+          <t>Integración con Microsoft 365 y Microsoft Defender for Cloud</t>
+        </is>
+      </c>
       <c r="D91" s="21" t="n"/>
-      <c r="E91" s="21" t="n"/>
+      <c r="E91" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="n"/>
       <c r="I91" s="15" t="n"/>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
-      <c r="L91" s="25" t="n"/>
+      <c r="L91" s="25" t="inlineStr">
+        <is>
+          <t>15f51296-5398-4e6d-bd23-7dd142b16c21</t>
+        </is>
+      </c>
       <c r="M91" s="25" t="n"/>
       <c r="N91" s="25" t="n"/>
       <c r="O91" s="25" t="n"/>
       <c r="P91" s="25" t="n"/>
     </row>
     <row r="92" ht="16.5" customHeight="1">
-      <c r="A92" s="21" t="n"/>
-      <c r="B92" s="21" t="n"/>
-      <c r="C92" s="21" t="n"/>
-      <c r="D92" s="21" t="n"/>
-      <c r="E92" s="21" t="n"/>
+      <c r="A92" s="21" t="inlineStr">
+        <is>
+          <t>Gestión de identidades y accesos</t>
+        </is>
+      </c>
+      <c r="B92" s="21" t="inlineStr"/>
+      <c r="C92" s="21" t="inlineStr">
+        <is>
+          <t>Definir el modelo de privilegios mínimos y la menor exposición de cuentas con privilegios</t>
+        </is>
+      </c>
+      <c r="D92" s="21" t="inlineStr">
+        <is>
+          <t>Separe las cuentas de administrador de las cuentas de usuario normales.</t>
+        </is>
+      </c>
+      <c r="E92" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="n"/>
       <c r="I92" s="15" t="n"/>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
-      <c r="L92" s="25" t="n"/>
+      <c r="L92" s="25" t="inlineStr">
+        <is>
+          <t>d7999a64-6f43-489a-af42-c78e78c06a73</t>
+        </is>
+      </c>
       <c r="M92" s="25" t="n"/>
       <c r="N92" s="25" t="n"/>
       <c r="O92" s="25" t="n"/>
       <c r="P92" s="25" t="n"/>
     </row>
     <row r="93" ht="16.5" customHeight="1">
-      <c r="A93" s="21" t="n"/>
-      <c r="B93" s="21" t="n"/>
-      <c r="C93" s="21" t="n"/>
-      <c r="D93" s="21" t="n"/>
-      <c r="E93" s="21" t="n"/>
+      <c r="A93" s="21" t="inlineStr">
+        <is>
+          <t>Gestión de identidades y accesos</t>
+        </is>
+      </c>
+      <c r="B93" s="21" t="inlineStr"/>
+      <c r="C93" s="21" t="inlineStr">
+        <is>
+          <t>Configure el inicio de sesión único y el inicio de sesión unificado. Habilite la autenticación multifactor.</t>
+        </is>
+      </c>
+      <c r="D93" s="21" t="inlineStr">
+        <is>
+          <t>Azure Databricks admite el acceso condicional de identificador de Microsoft Entra, que permite a los administradores controlar dónde y cuándo se permite a los usuarios iniciar sesión en Azure Databricks. Las directivas de acceso condicional pueden restringir el inicio de sesión en la red corporativa o pueden requerir autenticación multifactor (MFA).</t>
+        </is>
+      </c>
+      <c r="E93" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G93" s="21" t="n"/>
-      <c r="H93" s="15" t="n"/>
+      <c r="H93" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/databricks/security/auth/#single-sign-on</t>
+        </is>
+      </c>
       <c r="I93" s="15" t="n"/>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
-      <c r="L93" s="25" t="n"/>
+      <c r="L93" s="25" t="inlineStr">
+        <is>
+          <t>a22a4956-e7a8-4dc4-a20e-27c3e29711b1</t>
+        </is>
+      </c>
       <c r="M93" s="25" t="n"/>
       <c r="N93" s="25" t="n"/>
       <c r="O93" s="25" t="n"/>
       <c r="P93" s="25" t="n"/>
     </row>
     <row r="94" ht="16.5" customHeight="1">
-      <c r="A94" s="21" t="n"/>
-      <c r="B94" s="21" t="n"/>
-      <c r="C94" s="21" t="n"/>
-      <c r="D94" s="21" t="n"/>
-      <c r="E94" s="21" t="n"/>
+      <c r="A94" s="21" t="inlineStr">
+        <is>
+          <t>Gestión de identidades y accesos</t>
+        </is>
+      </c>
+      <c r="B94" s="21" t="inlineStr"/>
+      <c r="C94" s="21" t="inlineStr">
+        <is>
+          <t>Utilice la administración de tokens.</t>
+        </is>
+      </c>
+      <c r="D94" s="21" t="inlineStr">
+        <is>
+          <t>Los clientes pueden usar la API de administración de tokens o los controles de la interfaz de usuario para habilitar o deshabilitar los tokens de acceso personal (PAT) para la autenticación de la API de REST, limitar los usuarios que pueden usar PAT, establecer la duración máxima de los nuevos tokens y administrar los tokens existentes. Los clientes de alta seguridad suelen aprovisionar una duración máxima del token para los nuevos tokens de un área de trabajo. Esta característica requiere el plan de tarifa Premium.</t>
+        </is>
+      </c>
+      <c r="E94" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G94" s="21" t="n"/>
-      <c r="H94" s="15" t="n"/>
+      <c r="H94" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/databricks/admin/access-control/tokens</t>
+        </is>
+      </c>
       <c r="I94" s="15" t="n"/>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
-      <c r="L94" s="25" t="n"/>
+      <c r="L94" s="25" t="inlineStr">
+        <is>
+          <t>352beee0-79b5-488d-bfc5-972cd4cd21b0</t>
+        </is>
+      </c>
       <c r="M94" s="25" t="n"/>
       <c r="N94" s="25" t="n"/>
       <c r="O94" s="25" t="n"/>
       <c r="P94" s="25" t="n"/>
     </row>
     <row r="95" ht="16.5" customHeight="1">
-      <c r="A95" s="21" t="n"/>
-      <c r="B95" s="21" t="n"/>
-      <c r="C95" s="21" t="n"/>
-      <c r="D95" s="21" t="n"/>
-      <c r="E95" s="21" t="n"/>
+      <c r="A95" s="21" t="inlineStr">
+        <is>
+          <t>Gestión de identidades y accesos</t>
+        </is>
+      </c>
+      <c r="B95" s="21" t="inlineStr"/>
+      <c r="C95" s="21" t="inlineStr">
+        <is>
+          <t>Separe las cuentas de administrador de las cuentas de usuario normales</t>
+        </is>
+      </c>
+      <c r="D95" s="21" t="inlineStr">
+        <is>
+          <t>Si tiene administradores de Databricks que también son usuarios normales de la plataforma Databricks (por ejemplo, hay un ingeniero de datos principal que administra la plataforma y también realiza trabajos de ingeniería de datos), Databricks recomienda crear una cuenta independiente para las tareas administrativas. Es importante tener en cuenta que, como parte del modelo RBAC de Azure, los usuarios a los que se les conceden permisos de colaborador o superior para el grupo de recursos de un área de trabajo de Azure Databricks implementada se convierten automáticamente en administradores cuando inician sesión en esa área de trabajo. Por lo tanto, las mismas consideraciones descritas anteriormente también deben aplicarse a los usuarios de Azure Portal.</t>
+        </is>
+      </c>
+      <c r="E95" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="n"/>
       <c r="I95" s="15" t="n"/>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
-      <c r="L95" s="25" t="n"/>
+      <c r="L95" s="25" t="inlineStr">
+        <is>
+          <t>77036e5e-6b4b-4fd3-b503-547c1447dc56</t>
+        </is>
+      </c>
       <c r="M95" s="25" t="n"/>
       <c r="N95" s="25" t="n"/>
       <c r="O95" s="25" t="n"/>
       <c r="P95" s="25" t="n"/>
     </row>
     <row r="96" ht="16.5" customHeight="1">
-      <c r="A96" s="21" t="n"/>
-      <c r="B96" s="21" t="n"/>
-      <c r="C96" s="21" t="n"/>
-      <c r="D96" s="21" t="n"/>
-      <c r="E96" s="21" t="n"/>
+      <c r="A96" s="21" t="inlineStr">
+        <is>
+          <t>Gestión de identidades y accesos</t>
+        </is>
+      </c>
+      <c r="B96" s="21" t="inlineStr"/>
+      <c r="C96" s="21" t="inlineStr">
+        <is>
+          <t>Sincronización SCIM de usuarios y grupos.</t>
+        </is>
+      </c>
+      <c r="D96" s="21" t="inlineStr">
+        <is>
+          <t>SCIM (System for Cross-domain Identity Management) permite sincronizar usuarios y grupos de Microsoft Entra ID con Azure Databricks. Hay tres ventajas principales de este enfoque: 1. Al quitar un usuario, el usuario se quita automáticamente de Databricks. 2. Los usuarios también pueden ser deshabilitados temporalmente a través de SCIM. Los clientes han usado esta funcionalidad para escenarios en los que creen que una cuenta puede estar en peligro y necesitan investigar 3. Los grupos se sincronizan automáticamente Consulte la documentación para obtener instrucciones detalladas sobre cómo configurar SCIM para Azure Databricks. Esta característica requiere el plan de tarifa Premium</t>
+        </is>
+      </c>
+      <c r="E96" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G96" s="21" t="n"/>
-      <c r="H96" s="15" t="n"/>
+      <c r="H96" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/databricks/admin/users-groups/scim/</t>
+        </is>
+      </c>
       <c r="I96" s="15" t="n"/>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
-      <c r="L96" s="25" t="n"/>
+      <c r="L96" s="25" t="inlineStr">
+        <is>
+          <t>028a71ff-f1ce-415d-b3f0-d5e872d42e36</t>
+        </is>
+      </c>
       <c r="M96" s="25" t="n"/>
       <c r="N96" s="25" t="n"/>
       <c r="O96" s="25" t="n"/>
       <c r="P96" s="25" t="n"/>
     </row>
     <row r="97" ht="16.5" customHeight="1">
-      <c r="A97" s="21" t="n"/>
-      <c r="B97" s="21" t="n"/>
-      <c r="C97" s="21" t="n"/>
-      <c r="D97" s="21" t="n"/>
-      <c r="E97" s="21" t="n"/>
+      <c r="A97" s="21" t="inlineStr">
+        <is>
+          <t>Gestión de identidades y accesos</t>
+        </is>
+      </c>
+      <c r="B97" s="21" t="inlineStr"/>
+      <c r="C97" s="21" t="inlineStr">
+        <is>
+          <t>Limite los derechos de creación de clústeres.</t>
+        </is>
+      </c>
+      <c r="D97" s="21" t="inlineStr">
+        <is>
+          <t>Mediante el uso de políticas de clúster o las ACL de clúster más antiguas, los administradores pueden definir qué usuarios o grupos dentro de la organización pueden crear clústeres. Las ACL de clúster permiten especificar qué usuarios pueden adjuntar un bloc de notas a un clúster determinado. Tenga en cuenta que si un usuario comparte un bloc de notas que ya está conectado a un clúster de modo estándar, el destinatario también podrá ejecutar código en ese clúster. Esto no se aplica a los clústeres que aplican el aislamiento de usuarios: Almacenes SQL, alta simultaneidad con clústeres de ACL de tabla y alta simultaneidad con clústeres de paso a través de credenciales. Los clientes que usan Unity Catalog también pueden habilitar clústeres de un solo usuario para aplicar clústeres de aislamiento.</t>
+        </is>
+      </c>
+      <c r="E97" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="n"/>
       <c r="I97" s="15" t="n"/>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
-      <c r="L97" s="25" t="n"/>
+      <c r="L97" s="25" t="inlineStr">
+        <is>
+          <t>11cc57b4-a4b1-4410-b43a-58a9c2289b3d</t>
+        </is>
+      </c>
       <c r="M97" s="25" t="n"/>
       <c r="N97" s="25" t="n"/>
       <c r="O97" s="25" t="n"/>
       <c r="P97" s="25" t="n"/>
     </row>
     <row r="98" ht="16.5" customHeight="1">
-      <c r="A98" s="21" t="n"/>
-      <c r="B98" s="21" t="n"/>
-      <c r="C98" s="21" t="n"/>
-      <c r="D98" s="21" t="n"/>
-      <c r="E98" s="21" t="n"/>
+      <c r="A98" s="21" t="inlineStr"/>
+      <c r="B98" s="21" t="inlineStr"/>
+      <c r="C98" s="21" t="inlineStr">
+        <is>
+          <t>Restringir a los administradores del espacio de trabajo</t>
+        </is>
+      </c>
+      <c r="D98" s="21" t="inlineStr">
+        <is>
+          <t>Los administradores de cuentas pueden configurar una configuración del área de trabajo denominada RestrictWorkspaceAdmins para restringir a los administradores del área de trabajo para que solo cambien el propietario de un trabajo a sí mismos y la configuración de ejecución del trabajo como a una entidad de servicio en la que tengan el rol de usuario de entidad de servicio.</t>
+        </is>
+      </c>
+      <c r="E98" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G98" s="21" t="n"/>
-      <c r="H98" s="15" t="n"/>
+      <c r="H98" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/databricks/admin/workspace-settings/restrict-workspace-admins</t>
+        </is>
+      </c>
       <c r="I98" s="15" t="n"/>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
-      <c r="L98" s="25" t="n"/>
+      <c r="L98" s="25" t="inlineStr">
+        <is>
+          <t>6b57dfc6-5546-41e1-a3e3-453a3c863964</t>
+        </is>
+      </c>
       <c r="M98" s="25" t="n"/>
       <c r="N98" s="25" t="n"/>
       <c r="O98" s="25" t="n"/>
       <c r="P98" s="25" t="n"/>
     </row>
     <row r="99" ht="16.5" customHeight="1">
-      <c r="A99" s="21" t="n"/>
-      <c r="B99" s="21" t="n"/>
-      <c r="C99" s="21" t="n"/>
-      <c r="D99" s="21" t="n"/>
-      <c r="E99" s="21" t="n"/>
+      <c r="A99" s="21" t="inlineStr">
+        <is>
+          <t>Gestión de identidades y accesos</t>
+        </is>
+      </c>
+      <c r="B99" s="21" t="inlineStr"/>
+      <c r="C99" s="21" t="inlineStr">
+        <is>
+          <t>Almacenamiento de contraseñas y secretos en Azure Key Vault</t>
+        </is>
+      </c>
+      <c r="D99" s="21" t="inlineStr">
+        <is>
+          <t>Es importante tener en cuenta que, aunque los clientes usen Azure Key Vault para almacenar sus secretos, los controles de acceso deben definirse en Azure Databricks. Esto se debe a que se usa la misma identidad de servicio para recuperar el secreto de todos los usuarios de un área de trabajo de Azure Databricks.</t>
+        </is>
+      </c>
+      <c r="E99" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="n"/>
       <c r="I99" s="15" t="n"/>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
-      <c r="L99" s="25" t="n"/>
+      <c r="L99" s="25" t="inlineStr">
+        <is>
+          <t>8b662d6c-15f5-4129-9539-8e6ded237dd1</t>
+        </is>
+      </c>
       <c r="M99" s="25" t="n"/>
       <c r="N99" s="25" t="n"/>
       <c r="O99" s="25" t="n"/>
       <c r="P99" s="25" t="n"/>
     </row>
     <row r="100" ht="16.5" customHeight="1">
-      <c r="A100" s="21" t="n"/>
-      <c r="B100" s="21" t="n"/>
-      <c r="C100" s="21" t="n"/>
+      <c r="A100" s="21" t="inlineStr"/>
+      <c r="B100" s="21" t="inlineStr"/>
+      <c r="C100" s="21" t="inlineStr">
+        <is>
+          <t>Regenere/gire las teclas si las usa periódicamente</t>
+        </is>
+      </c>
       <c r="D100" s="21" t="n"/>
-      <c r="E100" s="21" t="n"/>
+      <c r="E100" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="n"/>
       <c r="I100" s="15" t="n"/>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
-      <c r="L100" s="25" t="n"/>
+      <c r="L100" s="25" t="inlineStr">
+        <is>
+          <t>42b16c21-d799-49a6-96f4-389a8f42c78e</t>
+        </is>
+      </c>
       <c r="M100" s="25" t="n"/>
       <c r="N100" s="25" t="n"/>
       <c r="O100" s="25" t="n"/>
       <c r="P100" s="25" t="n"/>
     </row>
     <row r="101" ht="16.5" customHeight="1">
-      <c r="A101" s="21" t="n"/>
-      <c r="B101" s="21" t="n"/>
-      <c r="C101" s="21" t="n"/>
-      <c r="D101" s="21" t="n"/>
-      <c r="E101" s="21" t="n"/>
+      <c r="A101" s="21" t="inlineStr">
+        <is>
+          <t>Gestión de identidades y accesos</t>
+        </is>
+      </c>
+      <c r="B101" s="21" t="inlineStr"/>
+      <c r="C101" s="21" t="inlineStr">
+        <is>
+          <t>Utilice clústeres que admitan el aislamiento de usuarios.</t>
+        </is>
+      </c>
+      <c r="D101" s="21" t="inlineStr">
+        <is>
+          <t>Los clústeres con aislamiento de usuario incluyen la aplicación de modo que cada usuario se ejecute como una cuenta de usuario sin privilegios diferente en el host del clúster. Los lenguajes también se limitan a aquellos que se pueden implementar de forma aislada (SQL y Python), y las API de Spark deben estar en una lista de permitidos de aquellos que creemos que son seguros para el aislamiento.</t>
+        </is>
+      </c>
+      <c r="E101" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="n"/>
       <c r="I101" s="15" t="n"/>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
-      <c r="L101" s="25" t="n"/>
+      <c r="L101" s="25" t="inlineStr">
+        <is>
+          <t>78c06a73-a22a-4495-9e7a-8dc4a20e27c3</t>
+        </is>
+      </c>
       <c r="M101" s="25" t="n"/>
       <c r="N101" s="25" t="n"/>
       <c r="O101" s="25" t="n"/>
       <c r="P101" s="25" t="n"/>
     </row>
     <row r="102" ht="16.5" customHeight="1">
-      <c r="A102" s="21" t="n"/>
-      <c r="B102" s="21" t="n"/>
-      <c r="C102" s="21" t="n"/>
-      <c r="D102" s="21" t="n"/>
-      <c r="E102" s="21" t="n"/>
+      <c r="A102" s="21" t="inlineStr">
+        <is>
+          <t>Gestión de identidades y accesos</t>
+        </is>
+      </c>
+      <c r="B102" s="21" t="inlineStr"/>
+      <c r="C102" s="21" t="inlineStr">
+        <is>
+          <t>Use entidades de servicio para ejecutar trabajos de producción. Utilice el control de acceso adecuado para los controles de seguridad de nivel de área de trabajo (ACL), nivel de cuenta (RBAC) y nivel de datos (catálogo de Unity)</t>
+        </is>
+      </c>
+      <c r="D102" s="21" t="inlineStr">
+        <is>
+          <t>Va en contra de los procedimientos recomendados de seguridad vincular las cargas de trabajo de producción a cuentas de usuario individuales, por lo que se recomienda configurar entidades de servicio dentro de Databricks. Los principios de servicio separan las acciones del administrador y del usuario de la carga de trabajo y evitan que las cargas de trabajo se vean afectadas si un usuario abandona una organización. Con Databricks, puede configurar trabajos para que se ejecuten como entidades de servicio y generar tokens de acceso personal para entidades de servicio.</t>
+        </is>
+      </c>
+      <c r="E102" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G102" s="21" t="n"/>
-      <c r="H102" s="15" t="n"/>
+      <c r="H102" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/databricks/security/auth/access-control/</t>
+        </is>
+      </c>
       <c r="I102" s="15" t="n"/>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
-      <c r="L102" s="25" t="n"/>
+      <c r="L102" s="25" t="inlineStr">
+        <is>
+          <t>e29711b1-352b-4eee-879b-588defc5972c</t>
+        </is>
+      </c>
       <c r="M102" s="25" t="n"/>
       <c r="N102" s="25" t="n"/>
       <c r="O102" s="25" t="n"/>
       <c r="P102" s="25" t="n"/>
     </row>
     <row r="103" ht="16.5" customHeight="1">
-      <c r="A103" s="21" t="n"/>
-      <c r="B103" s="21" t="n"/>
-      <c r="C103" s="21" t="n"/>
-      <c r="D103" s="21" t="n"/>
-      <c r="E103" s="21" t="n"/>
+      <c r="A103" s="21" t="inlineStr">
+        <is>
+          <t>Protección de datos</t>
+        </is>
+      </c>
+      <c r="B103" s="21" t="inlineStr"/>
+      <c r="C103" s="21" t="inlineStr">
+        <is>
+          <t>Evite almacenar datos de producción en DBFS.</t>
+        </is>
+      </c>
+      <c r="D103" s="21" t="inlineStr">
+        <is>
+          <t>De forma predeterminada, DBFS es un sistema de archivos al que pueden acceder todos los usuarios del espacio de trabajo determinado y al que se puede acceder a través de la API. Esto no es necesariamente un problema importante de exfiltración de datos, ya que puede limitar el acceso al acceso a los datos a través de la API de DBFS o la CLI de Databricks mediante listas de acceso IP o acceso a redes privadas. Sin embargo, a medida que crezca el uso de Azure Databricks y más usuarios se unan a un área de trabajo, esos usuarios tendrían acceso a los datos almacenados en DBFS, lo que crearía la posibilidad de que se compartiera información no deseada. Databricks recomienda a nuestros clientes que no almacenen datos de producción en DBFS.</t>
+        </is>
+      </c>
+      <c r="E103" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="n"/>
       <c r="I103" s="15" t="n"/>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
-      <c r="L103" s="25" t="n"/>
+      <c r="L103" s="25" t="inlineStr">
+        <is>
+          <t>d4cd21b0-7703-46e5-b6b4-bfd3d503547c</t>
+        </is>
+      </c>
       <c r="M103" s="25" t="n"/>
       <c r="N103" s="25" t="n"/>
       <c r="O103" s="25" t="n"/>
       <c r="P103" s="25" t="n"/>
     </row>
     <row r="104" ht="16.5" customHeight="1">
-      <c r="A104" s="21" t="n"/>
-      <c r="B104" s="21" t="n"/>
-      <c r="C104" s="21" t="n"/>
-      <c r="D104" s="21" t="n"/>
-      <c r="E104" s="21" t="n"/>
+      <c r="A104" s="21" t="inlineStr">
+        <is>
+          <t>Protección de datos</t>
+        </is>
+      </c>
+      <c r="B104" s="21" t="inlineStr"/>
+      <c r="C104" s="21" t="inlineStr">
+        <is>
+          <t>Cifre el almacenamiento y restrinja el acceso.</t>
+        </is>
+      </c>
+      <c r="D104" s="21" t="inlineStr">
+        <is>
+          <t>En el caso de las cuentas de almacenamiento que administra, es su responsabilidad asegurarse de que las cuentas de almacenamiento estén protegidas según sus requisitos. Algunos ejemplos pueden ser: Cifrado con la clave administrada por el cliente, Restricción del acceso a redes de confianza con un firewall de almacenamiento, No se permite el acceso público anónimo</t>
+        </is>
+      </c>
+      <c r="E104" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G104" s="21" t="n"/>
-      <c r="H104" s="15" t="n"/>
+      <c r="H104" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/databricks/security/keys/customer-managed-keys</t>
+        </is>
+      </c>
       <c r="I104" s="15" t="n"/>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
-      <c r="L104" s="25" t="n"/>
+      <c r="L104" s="25" t="inlineStr">
+        <is>
+          <t>1447dc56-028a-471f-bf1c-e15dd3f0d5e8</t>
+        </is>
+      </c>
       <c r="M104" s="25" t="n"/>
       <c r="N104" s="25" t="n"/>
       <c r="O104" s="25" t="n"/>
       <c r="P104" s="25" t="n"/>
     </row>
     <row r="105" ht="16.5" customHeight="1">
-      <c r="A105" s="21" t="n"/>
-      <c r="B105" s="21" t="n"/>
-      <c r="C105" s="21" t="n"/>
-      <c r="D105" s="21" t="n"/>
-      <c r="E105" s="21" t="n"/>
+      <c r="A105" s="21" t="inlineStr">
+        <is>
+          <t>Protección de datos</t>
+        </is>
+      </c>
+      <c r="B105" s="21" t="inlineStr"/>
+      <c r="C105" s="21" t="inlineStr">
+        <is>
+          <t>Adición de una clave administrada por el cliente para los servicios administrados y el almacenamiento del área de trabajo</t>
+        </is>
+      </c>
+      <c r="D105" s="21" t="inlineStr">
+        <is>
+          <t>Agregue una clave administrada por el cliente para los datos seleccionados almacenados en el plano de control de Azure Databricks, como cuadernos, secretos, consultas SQL de Databricks y el historial de consultas SQL de Databricks, así como para la cuenta de almacenamiento raíz usada para DBFS. Azure Databricks requiere acceso a esta clave para las operaciones en curso. Puede revocar el acceso a la clave para impedir que Azure Databricks acceda a los datos cifrados en el plano de control (o en nuestras copias de seguridad). Esto es como una opción nuclear donde el espacio de trabajo deja de funcionar, pero proporciona un control de emergencia para situaciones extremas. Esta característica requiere el plan de tarifa Premium.</t>
+        </is>
+      </c>
+      <c r="E105" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G105" s="21" t="n"/>
-      <c r="H105" s="15" t="n"/>
+      <c r="H105" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/databricks/security/keys/customer-managed-keys</t>
+        </is>
+      </c>
       <c r="I105" s="15" t="n"/>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
-      <c r="L105" s="25" t="n"/>
+      <c r="L105" s="25" t="inlineStr">
+        <is>
+          <t>72d42e36-11cc-457b-9a4b-1410e43a58a9</t>
+        </is>
+      </c>
       <c r="M105" s="25" t="n"/>
       <c r="N105" s="25" t="n"/>
       <c r="O105" s="25" t="n"/>
       <c r="P105" s="25" t="n"/>
     </row>
     <row r="106" ht="16.5" customHeight="1">
-      <c r="A106" s="21" t="n"/>
-      <c r="B106" s="21" t="n"/>
-      <c r="C106" s="21" t="n"/>
-      <c r="D106" s="21" t="n"/>
-      <c r="E106" s="21" t="n"/>
+      <c r="A106" s="21" t="inlineStr">
+        <is>
+          <t>Gestión de redes</t>
+        </is>
+      </c>
+      <c r="B106" s="21" t="inlineStr"/>
+      <c r="C106" s="21" t="inlineStr">
+        <is>
+          <t>Habilite las listas de acceso IP para restringir el acceso a determinadas direcciones IP.</t>
+        </is>
+      </c>
+      <c r="D106" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Configure listas de acceso IP que restrinjan las direcciones IP que se pueden autenticar en Databricks en el nivel de la consola de cuenta y el área de trabajo comprobando si el usuario o el cliente de API procede de un intervalo de direcciones IP correcto conocido, como una VPN o una red de oficina. Las sesiones de usuario establecidas no funcionan si el usuario se mueve a una dirección IP incorrecta, como cuando se desconecta de la VPN. </t>
+        </is>
+      </c>
+      <c r="E106" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G106" s="21" t="n"/>
-      <c r="H106" s="15" t="n"/>
+      <c r="H106" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/databricks/security/network/front-end/ip-access-list</t>
+        </is>
+      </c>
       <c r="I106" s="15" t="n"/>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
-      <c r="L106" s="25" t="n"/>
+      <c r="L106" s="25" t="inlineStr">
+        <is>
+          <t>277de183-b1ac-4252-a9a9-b64608489a8f</t>
+        </is>
+      </c>
       <c r="M106" s="25" t="n"/>
       <c r="N106" s="25" t="n"/>
       <c r="O106" s="25" t="n"/>
       <c r="P106" s="25" t="n"/>
     </row>
     <row r="107" ht="16.5" customHeight="1">
-      <c r="A107" s="21" t="n"/>
-      <c r="B107" s="21" t="n"/>
-      <c r="C107" s="21" t="n"/>
-      <c r="D107" s="21" t="n"/>
-      <c r="E107" s="21" t="n"/>
+      <c r="A107" s="21" t="inlineStr">
+        <is>
+          <t>Gestión de redes</t>
+        </is>
+      </c>
+      <c r="B107" s="21" t="inlineStr"/>
+      <c r="C107" s="21" t="inlineStr">
+        <is>
+          <t>Configure y use Azure Private Link para acceder a los recursos de Azure.</t>
+        </is>
+      </c>
+      <c r="D107" s="21" t="inlineStr">
+        <is>
+          <t>Azure Private Link proporciona una ruta de red privada de un entorno de Azure a otro. Private Link se puede configurar tanto entre los usuarios de Azure Databricks y el plano de control, como entre el plano de control y el plano de datos. Entre los usuarios de Databricks y el plano de control, Private Link proporciona controles seguros que limitan el origen de las solicitudes entrantes. Si una empresa ya enruta el tráfico a través de un entorno de Azure, puede usar Private Link para que la comunicación entre los usuarios y el plano de control de Azure Databricks no atraviese direcciones IP públicas. Esta característica requiere el plan de tarifa Premium. Use Azure Private Link para conectarse desde Azure Databricks a los recursos de Azure. Private Link no solo garantiza</t>
+        </is>
+      </c>
+      <c r="E107" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G107" s="21" t="n"/>
-      <c r="H107" s="15" t="n"/>
+      <c r="H107" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/databricks/security/network/classic/private-link</t>
+        </is>
+      </c>
       <c r="I107" s="15" t="n"/>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
-      <c r="L107" s="25" t="n"/>
+      <c r="L107" s="25" t="inlineStr">
+        <is>
+          <t>82db8eb9-d1ba-473b-86a5-a57eba8dd4b3</t>
+        </is>
+      </c>
       <c r="M107" s="25" t="n"/>
       <c r="N107" s="25" t="n"/>
       <c r="O107" s="25" t="n"/>
@@ -7518,7 +8472,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F75" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F108" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/datasecurity_checklist.es.xlsx
+++ b/spreadsheet/macrofree/datasecurity_checklist.es.xlsx
@@ -941,7 +941,7 @@
     <row r="4" ht="17.25" customFormat="1" customHeight="1" s="5">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B4" s="4" t="n"/>
